--- a/Physiopathologie/Excel/respiratoire.xlsx
+++ b/Physiopathologie/Excel/respiratoire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBEC8F51-D5E7-451A-8145-B27B960A69B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D134DB2-61FF-48DB-9E7E-D4B27131A7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="417">
   <si>
     <t>Numero</t>
   </si>
@@ -57,13 +57,1243 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque PaO2 devient &lt; 70 mm Hg et surtout à partir de 40 mm Hg, une faible diminution de PaO2 engendre une désaturation rapide et importante de l'hémoglobine,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La PO2 du sang veineux mêlé = 40 mm Hg et la PO2 du sang artériel = 100 mm Hg.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La production tissulaire de CO2 est de 15-20 mmoles par jour. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la fréquence respiratoire = 10 cycles/min et le volume courant = 500 ml, la ventilation pulmonaire totale est de 5 L/min.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les chémorécepteurs centraux sont surtout sensibles aux variations de PaCO2, mais également de pH et de PaO2 (lorsque PaO2 devient &lt; 60 mm Hg).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La composition de l'air expiré varie progressivement pour atteindre, en fin d'expiration, la composition de l'air alvéolaire.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La consommation tissulaire en O2, au repos et chez l'un individu normal, est de 200 à 250 ml/min. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les poumons et la paroi thoracique sont assimilés à 2 ressorts, reliés par la plèvre et l’espace pleural, et qui agissent dans le même sens.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le volume expiratoire maximal à la première seconde (VEMS) permet de calculer le rapport de Tiffeneau qui est supérieur à 80% chez le sujet normal.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le coefficient de diffusion (D_L } représente la capacité de diffusion d'un gaz et est proportionnel à la surface de la barrière de diffusion.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La spirométrie ne permet pas la mesure du volume résiduel, de la capacité résiduelle fonctionnelle et de la capacité pulmonaire totale. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L’expiration est toujours passive.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le surfactant qui réduit la tension de surface diminue la compliance pulmonaire.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans un mélange gazeux ne contenant pas de vapeur d’eau et qui exerce une pression de 800 mm Hg, le composé dont la concentration fractionnelle est de 30% exerce une pression partielle de 240 mm Hg. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La circulation pulmonaire est une circulation à bas débit, basse pression et basse résistance.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A pression partielle égale, il y a 20 fois plus de CO2 dissout dans le plasma que d'O2.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les voies aériennes de conduction sont entièrement cartilagineuses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les pneumocytes de type I produisent le surfactant. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si la solubilité plasmatique de l’O2, est de 0,0013 mM/mmHg, à 37°C, la concentration d’'O2 dissout dans le  plasma est de 0,013 mM, lorsque PO2 = 100 mm Hg. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La diffusion alvéolaire du CO est limitée par la perfusion. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la barrière diffusion est altérée, la diffusion du CO2 peut être réduite et entraîner une hypercapnie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez le sujet normal, un exercice physique important réalisé en altitude aggrave l'hypoxémie.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La circulation pulmonaire est une circulation à haut débit et à basse résistance. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez le sujet normal, il existe un shunt anatomique peu important qui est lié à la circulation bronchique. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La circulation bronchique assure également la vascularisation des alvéoles.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30. Ventilation  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la fréquence respiratoire est de 10 cycles/min et le volume courant est de 500 ml, la ventilation alvéolaire est de 5L/min.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'air alvéolaire a une PCO2 de 40 mmHg et une PO2 de 104 mmHg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la ventilation alvéolaire double, la PAco2 diminue de moitié, considérant que la production de CO2 reste inchangée.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le rapport de Tiffeneau est le rapport entre le volume expiratoire maximal à la première seconde (VEMS) la capacité vitale forcée (CVF). Il est de 50% chez le sujet normal.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance pulmonaire est plus grande lorsqu'elle est mesurée du VR vers la CPT (càd en inspiration), en raison du phénomène d'hystérésis lié au surfactant.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La cage thoracique peut être considérée comme un ressort étiré qui tend à revenir à sa position d'équilibre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la capacité pulmonaire totale = 6L et la capacité vitale = 4,5L, le volume résiduel = 1,5L </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une respiration calme, l'inspiration est active et l'expiratoire est passive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le surfactant est un composant de la barrière alvéolo-capillaire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La zone de conduction des voies aériennes inférieures se situe entre la 1° à la 16° génération et est entièrement cartilagineuse.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système parasympathique induit une bronchoconstriction par effet M3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le collapsus des alvéoles est empêché par la pression intrapleurale positive. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'hémoglobine transporte +98,5% de l'O2 vers les tissus, le restant de l'O2 étant transporté dans le sang, sous forme dissoute.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans un mélange gazeux, la pression exercée par chacun des gaz qui composent le mélange dépend de la  pression exercée par les autres gaz.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque de l'air est introduit dans l’espace pleural gauche, le poumon gauche et la cage thoracique gauche se rétractent.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le débit expiratoire de pointe (ou peak flow) est diminué en cas de pathologie obstructive et également en cas de pathologie restrictive.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Près de 80% de la résistance des voies aériennes inférieures est situé au niveau des voies aériennes larges et moyennes de plus de 2 mm de diamètre. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En cas d'emphysème, la compliance pulmonaire augmente en raison d’une destruction des septa alvéolaires qui contiennent des fibres élastiques.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une pathologie restrictive, le rapport entre le volume maximal expiré à la lère seconde et la capacité vitale forcée reste normal ou est même légèrement augmenté. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'air ambiant contient 79% de N2, 21% d'O2 et 0,03% de CO2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la loi de Henry, la concentration d'un gaz dissout dans un liquide est inversement proportionnelle, à température constante, à sa solubilité et à sa pression partielle.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon Laplace, les petites alvéoles pulmonaires où la pression est plus élevée se vident dans les plus grandes alvéoles où la pression est plus basse.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La circulation pulmonaire assure une vascularisation alvéolaire très importante (+ 500 à 1000 capillaires par alvéole).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système orthosympathique exerce un effet bronchoconstricteur par effet Beta-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La libération tissulaire de l'O2 lié à HbO2 est favorisée par la diminution du pH et l'augmentation de la PaCO2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La quantité d'O2 dissoute dans le plasma augmente fortement lorsque la PaO2 dépasse 100 mmHg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'effet Haldane est la libération de CO2 lié à l’hémoglobine (Hb) lors de la liaison de l'O2 avec l'Hb au  niveau des capillaires pulmonaires. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la fréquence respiratoire est de 10 cycles/min et le volume courant de 500 ml, la ventilation alvéolaire est de 3,5L/min, sachant que le volume de l'espace mort anatomique est de 150 ml   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La PACO2 est proportionnelle à la production de CO2 et inversement proportionnelle à la ventilation  alvéolaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La PAO2 est de 100 mmHg lorsque PIO2 = 150 mmHg, PACO2 = 36 mmHg et R = 0,8    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une pneumectomie droite avec un poumon gauche normal, la compliance pulmonaire diminue mais la compliance pulmonaire spécifique reste inchangée.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le débit expiratoire n'est effort dépendant qu'à haut volume pulmonaire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'effet Haldane signifie que le contenu du sang en CO2 est indépendant de la saturation de l'hémoglobine en O2  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La quantité d'O2 liée à l'hémoglobine (Hb) qui s'exprime en ml O2/100 ml de sang est déterminée par la relation suivante: O2 lié = (% sat. Hb) x (capacité maximale de l'Hb pour l'O2)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez un adulte en bonne santé et au niveau de la mer, la PAO2 = 104 mmHg et la PvO2 = 40 mmHg. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez un sujet normal et au repos, l'équilibre de la pression partielle en O2 entre le capillaire alvéolaire et l'air alvéolaire est atteint après +0,25 sec  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pour un même volume de l'espace mort anatomique et pour une même ventilation pulmonaire totale, la ventilation alvéolaire peut cependant être différente si le volume courant augmente ou diminue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'espace mort alvéolaire correspond au volume d'air qui parvient aux alvéoles non perfusées. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Concernant la mécanique ventilatoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la valeur de la CRF est connue, la CPT peut être calculée.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le volume résiduel est le volume qui demeure dans les poumons après une expiration normale,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une pathologie obstructive comme l'emphysème, le VR est augmenté alors que le rapport de Tiffeneau est diminué.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">34. Concernant la diffusion: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La capacité de diffusion pour le CO est diminuée lorsque la barrière alvéolo-capillaire est épaissie ou détruite.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau de la mer et dans les conditions normales, la PAO2 est de 150 mmHg    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une hypoxémie peut résulter d'une altération de la barrière alvéolo-capillaire ou d'une diminution de la PIO2 liée à l'altitude.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">32. Concernant le transport des gaz: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'effet Haldane signifie que le contenu du sang en CO2 à une valeur donnée de PCO2. augmente lorsque la saturation en O2 de l'hémoglobine est plus basse,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la saturation de l’hémoglobine devient inférieure à 90%, la PaO2 est déjà fortement diminuée.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une anémie et lorsque la PaO2 reste identique, la saturation de l'hémoglobine diminue.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30. Concernant la mécanique respiratoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La spirométrie permet de mesurer 3 volumes et 2 capacités.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'un pneumothorax gauche, le poumon droit se rétracte et la cage thoracique gauche se distend,.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24. Concernant le système respiratoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La capacité résiduelle fonctionnelle est le volume qui demeure dans les poumons après une expiration calme et qui correspond à la somme du volume de réserve expiratoire et du volume résiduel.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une pathologie obstructive comme l'emphysème, la capacité pulmonaire totale est augmentée...    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’une pathologie restrictive, le rapport de Tiffeneau qui est le rapport entre le VEMS et la capacité vitale forcée est diminué.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23. Concernant le système respiratoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La zone d'échange des voies aériennes inférieures se situe de la 17e à la 23e génération dans la mesure où il existe des alvéoles à partir des bronchioles respiratoires.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La communication entre veines bronchiques (sang oxygéné) et veines pulmonaires (sang désoxygéné)  explique le shunt anatomique du sujet normal.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En absence de surfactant, les petites alvéoles gonfleraient et les grandes alvéoles se collaberaient.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selon Laplace, les grandes alvéoles où la pression est plus élevée se vident dans les plus petites alvéoles où la pression est plus basse,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la diffusion tissulaire de l'O2 est +20 fois supérieure à celle du CO2, compte tenu de sa plus grande solubilité.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> comme la pression partielle de la vapeur d'eau = 47 mmHg à 37°C, l'air humide exerce, à cette température, une pression de 713 mmHg au niveau de la mer.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31. Concernant la mécanique ventilatoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance pulmonaire est plus faible à hauts volumes pulmonaires et est la plus haute au niveau du  volume résiduel.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une pathologie restrictive, la CRF est diminuée en raison de l'augmentation du rappel élastique du poumon.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28. Concernant le système respiratoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La zone de conduction des voies aériennes inférieures se situe de la 1°° à la 16° génération, Cette zone est cartilagineuse jusqu'à la 10° génération et non cartilagineuse ensuite.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vascularisation alvéolaire est très importante et il existe de 50 à 100 capillaires par alvéole.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Il n'y a pas d'innervation directe orthosympathique au niveau des muscles lisses bronchiques.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22. Concernant la diffusion: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans les conditions normales, le transfert de l'O2 à travers la barrière alvéolo-capillaire est limité par la diffusion.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En altitude, la pression partielle en O2 du sang veineux mêlé est diminuée chez le sujet normal.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La capacité de diffusion pour le CO est diminuée lors d'une fibrose pulmonaire qui réduit la surface des échanges alvéolo-capillaires.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18. Concernant la ventilation pulmonaire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La ventilation alvéolaire (V_A ) représente le volume d'air frais qui atteint les alvéoles à chaque cycle respiratoire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'espace mort anatomique est la somme de l'espace mort physiologique et de l'espace mort alvéolaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Concernant le transport des gaz: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'effet Haldane permet de doubler la quantité de CO2 libérée au niveau des alvéoles pulmonaires.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une anémie réduit la capacité de transport de l'O2 par litre de sang même lorsque la PaO2 reste inchangée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le déplacement vers la gauche de la courbe de dissociation de HbO2 favorise la libération tissulaire d'O2    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q8. Concernant la ventilation pulmonaire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans une situation donnée, la production tissulaire de CO2 est relativement constante et la PaCO2 est un bon indicateur de la ventilation alvéolaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la fréquence respiratoire est de 12 cycles/min et le volume courant de 450 ml, la ventilation alvéolaire  est de 3,4L/min, sachant que le volume de l'espace mort anatomique est de 150 ml   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque PIO2 = 150 mmHg et R = 0,8, la PaO2 est de 100 mmHg si la PaCO2 est de 40 mm Hg.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6. Concernant la mécanique respiratoire:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'un emphysème, la CRF est augmentée en raison d'une diminution du rappel élastique du poumon.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le rapport de Tiffeneau est normal ou légèrement augmenté en cas de pathologie restrictive.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le débit expiratoire devient effort dépendant à bas volume pulmonaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la production tissulaire d’un organisme adulte est de + 10 mmoles de CO2 par minute et au repos, ce qui correspond à 15-20 moles de CO2 produites par jour.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le déplacement vers la droite de la courbe de dissociation de HbO2 favorise la libération tissulaire d'O2.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la capacité maximale de l’hémoglobine pour l'O2 augmente en cas d’anémie.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la capacité de diffusion (D_L) est mesurée en clinique grâce à l’utilisation de CO dont la diffusion n'est limitée que par la barrière de diffusion.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dans les conditions normales, la diffusion alvéolaire de l'O2 est limitée par la perfusion tandis que la  diffusion alvéolaire de CO2 est limitée par la barrière de diffusion.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la ventilation pulmonaire totale est proportionnelle à la fréquence respiratoire et au volume courant. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lors d'une respiration rapide et superficielle, la ventilation alvéolaire diminue, ce qui entraîne obligatoirement une diminution de la ventilation pulmonaire totale,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> les chémorécepteurs centraux ne sont pas influencés par la diminution de PaO2.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la contraction des m. intercostaux externes augmente uniquement le diamètre antéro-postérieur de la cage thoracique. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la cage thoracique a tendance à se distendre et à augmenter son volume.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lors d'un pneumothorax gauche, le poumon gauche se rétracte et la cage thoracique se distend à droite.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le surfactant est un agent tensio-actif qui augmente la tension de surface. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la spiromètre mesure uniquement les volumes échangeables. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la zone de conduction des voies aériennes inférieures s'étend de la 1° à la 16° génération.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q16. Concernant la diffusion des gaz: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La capacité de diffusion pour le CO reste préservée lors de l'emphysème,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans les conditions normales, le transfert de l'O2 à travers la barrière alvéolo-capillaire est limité par la perfusion et la diffusion.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En altitude, le gradient artério-veineux en O2 peut être fortement réduit, suite à l'hypoxémie et à la diminution de la pression partielle en O2 du sang veineux mêlé.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q12. Concernant la mécanique respiratoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La force de retour élastique du poumon dépend uniquement de la tension de surface liée à l'interface air-eau au niveau des alvéoles.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance pulmonaire est déterminée lors d'une courbe d'inflation, en mesurant la variation de pression au  volume correspondant à la capacité résiduelle fonctionnelle + 1L.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La résistance des voies aériennes inférieures est indépendante du volume pulmonaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q34. Concernant la mécanique respiratoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Connaissant la valeur de la capacité pulmonaire totale et du volume résiduel, il est possible de calculer la capacité vitale.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q32. Concernant le transport des gaz:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la saturation de l’hémoglobine est de 90%, la PaO2 reste encore proche de 100 mmHg.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'effet Haldane signifie que le contenu du sang en CO2 dépend de la quantité d'hémoglobine.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La libération tissulaire de l’O2 lié à HbO2 est favorisée par l'augmentation du pH (effet Bohr).    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q23. Concernant la diffusion des gaz:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le transfert du CO à travers la barrière alvéolo-capillaire est limité par la diffusion compte tenu de la très haute affinité du CO pour l'hémoglobine.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'exercice musculaire important en altitude peut entraîner une hypoxémie chez le sujet normal.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le transfert du N20 à travers la barrière alvéolo-capillaire est limité par les caractéristiques de la barrière alvéolo-capillaire dans la mesure où le N20 ne se lie pas à l’hémoglobine.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q19. Concernant le système respiratoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le shunt anatomique est un mélange de sang veineux désoxygéné bronchique avec le sang oxygéné alvéolaire qui génère une petite différence alvéolo-artérielle en O2 chez l'individu normal (&lt; 15 mm Hg).   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La zone de conduction des voies aériennes inférieures devient non cartilagineuse à partir des bronchioles, c'est-  à-dire à partir de la 16ème génération.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque l'altitude augmente, la PaO2 diminue en raison de la diminution de la pression atmosphérique et de la FiO2.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1. Concernant la diffusion des gaz: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La diffusion des gaz au niveau de la barrière alvéolo-capillaire dépend du coefficient de diffusion du gaz et de son gradient de pression partielle de part et d’autre de cette barrière.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le CO est utilisé en clinique pour mesurer la capacité de diffusion du poumon.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q33. Concernant la ventilation pulmonaire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'équation des gaz alvéolaires permet de déterminer la PAO2    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'espace mort alvéolaire est également appelé espace mort physiologique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q29. Concernant la mécanique respiratoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque de l'air est introduit dans l’espace pleural, le poumon homolatéral se rétracte et la cage thoracique homolatérale se distend.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un patient dont la CVF = 4,6 L et le VEMS = 1,4 L a très probablement une pathologie restrictive,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la capacité résiduelle fonctionnelle = 3L, la capacité inspiratoire = 3,5L et le volume courant = 0,5L, le volume de réserve inspiratoire est égal à 3L    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q28. Concernant le système respiratoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance spécifique dépend du volume pulmonaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q27. Concernant le système respiratoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La circulation bronchique qui fait communiquer les veines bronchiques et les veines pulmonaires est responsable d'un shunt anatomique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'un exercice physique, l'augmentation du débit cardiaque entraîne une augmentation du débit pulmonaire  et par conséquent une élévation importante de la pression pulmonaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q20. Concernant le transport des gaz: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'effet Bohr signifie que, pour une PO2 et une PCO2 données, la saturation de l'hémoglobine en O2 diminue lorsque le pH diminue,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez un sujet normal, la saturation de l'hémoglobine est de 90% au niveau du sang veineux mêlé.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le "chloride shift" ou phénomène de Hamburger explique que l'hématocrite veineux est un peu inférieur à l'hématocrite artériel.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2. Concernant la ventilation pulmonaire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D'après l'équation de la ventilation alvéolaire, lorsque la PaCO2 double, cela signifie que la ventilation  alvéolaire a également doublé, considérant que la production de CO2 reste inchangée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'espace mort physiologique est d'environ 150 ml et correspond à la zone de conduction des voies aériennes où  il n'y a pas d'échanges gazeux.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q32. Concernant la ventilation pulmonaire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pour un espace mort anatomique de 150 ml et une fréquence respiratoire de 20 cycles/minute, la ventilation alvéolaire est de 6L/min lorsque le volume courant est de 450 mil.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En altitude, la diminution de la PAO2 s'explique par la diminution de la PIO2    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une embolie pulmonaire, l'espace mort physiologique augmente.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q25. Concernant le système respiratoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vascularisation alvéolaire est assurée par la circulation pulmonaire et par la circulation bronchique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans un mélange gazeux ne contenant pas de vapeur d'eau et qui exerce une pression de 600 mmHg, le composé dont la concentration fractionnelle est de 20% exerce une pression partielle de 120 mmHg.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’une respiration calme, l'expiration est passive.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le volume de réserve expiratoire = 1,5L et le volume de réserve inspiratoire = 2,5L, la capacité vitale est de 4L     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q11. Concernant le transport des gaz: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La différence entre la pression partielle en CO2 du sang artériel et la pression partielle en CO2 du sang veineux mêlé est de l'ordre de 5 à 6 mmHg   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La quantité d'O2 liée à l'hémoglobine dépend uniquement de la quantité d'hémoglobine.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q33. Concernant la mécanique respiratoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une inspiration calme, la pression intra pleurale doit suffisamment diminuer pour vaincre le retour élastique du poumon et la résistance des voies aériennes.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le rapport de Tiffeneau est normal lorsqu'il est égal à 80%    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25 à 40% de la résistance des voies aériennes se situent au niveau des voies aériennes supérieures et 60 à 75% se situent au niveau des voies aériennes inférieures.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une anémie, la capacité maximale de l'hémoglobine pour l'O2 diminue.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si on augmente suffisamment la FIO2 de l'air inspiré, il est possible de dissoudre une quantité importante d'O2 dans le sang et d'améliorer ainsi le transport d'O2 vers les tissus.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'effet Haldane signifie que l'hémoglobine réduite dans les capillaires périphériques tissulaires facilite le transport du CO2.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q11. Concernant la diffusion des gaz: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La capacité de diffusion pour le CO est rarement diminuée lors de l'emphysème.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau de la mer, la PIO2 est de 150 mmHg et dans les conditions normales, la PAO2 est de 104 mmHg.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'altitude peut entraîner une hypoxémie sévère alors que la barrière de diffusion reste pourtant préservée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q10. Concernant le système respiratoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le lobule secondaire est l'unité respiratoire anatomique, limité par des travées conjonctives et comprenant 2-5 bronchioles terminales.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9. Concernant la mécanique respiratoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A la fin d'une expiration calme, l'inspiration débute au niveau de la CRF.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le volume résiduel est le volume qui demeure dans les poumons après une expiration normale.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A la valeur de la CPT, la force de rappel élastique du poumon est la plus élevée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q10. Concernant la circulation pulmonaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grâce au phénomène de recrutement et de distension, les résistances vasculaires pulmonaires diminuent à l'effort.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'investigation des mécanismes d’une hypertension pulmonaire nécessite une évaluation du débit cardiaque,  des résistances vasculaires pulmonaires et des pressions d'oreillette gauche.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vasoconstriction pulmonaire hypoxique peut être bénéfique en diminuant le shunt.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3. Concernant l'exercice, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au terme d'un effort important chez un sujet normal d'âge moyen, les résultats de mesure suivants sont classiques: fréquence cardiaque : 175/min; VE : 180 L/min et VO2 : 3000 ml/min    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le seuil ventilatoire est le moment où la VCO2 augmente moins que la VO2    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au cours d’un effort progressif chez un sujet, la charge passe de 20 à 40 puis 80 watts et la VO2 de 250 à 500 puis 1000 ml/min. Ce résultat est cohérent.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q35. Concernant la diffusion pulmonaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En physiopathologie, le trouble de la diffusion est le principal facteur responsable d'une AaPO2 élevée.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La diffusion pulmonaire augmente à l'exercice car le facteur résistance à la diffusion dans le globule rouge et à la combinaison chimique dans le globule rouge diminue.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La diffusion du CO est principalement liée à la diffusion comme celle de tout gaz inerte.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q24. Concernant l'air alvéolaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La concentration fractionnaire de l'oxygène qui s'y trouve baisse quand l'altitude augmente.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pendant la respiration, la pression partielle en CO2 y est supérieure à tout moment à celle mesurée à la bouche du sujet.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression partielle en O2 est inférieure à celle de l'air inspiré car l'O2 y est capté et le CO2 rejeté, De plus, l'air y est saturé en vapeur d'eau.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q14. Concernant les volumes pulmonaires, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La CPT résulte de l'équilibre entre le rappel élastique du poumon et la force des muscles inspiratoires.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une CPT de 6300 ml, une CRF de 3400 ml, un VRE de 1400 ml, un volume courant de 500 ml, un VRI de 3000 ml, une CI de 3000 ml et un VR de 2000 mi sont des valeurs compatibles entre-elles.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les volumes mobilisables sont mesurés par pléthysmographie corporelle.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q13. Concernant la cascade de l'oxygène, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'hypoxémie liée à une hypoventilation alvéolaire, un trouble de la diffusion, un shunt ou une altération des rapports ventilation/perfusion est toujours associée à une élévation de la PaCO2 qui sera corrigée par l'activation des chémorécepteurs sauf dans le cas de l'hypoventilation alvéolaire.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une hypoventilation alvéolaire va altérer la AaPO2    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans cette cascade, PA précède Pa qui précède Pc.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q12. Concernant l’airway closure (fermeture des voies aériennes), caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elle est plus importante à la base du poumon en position debout.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elle augmente avec l'âge chez le sujet normal.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elle augmente la AaPO2    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4. Concernant les volumes pulmonaires, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La CRF diminue en position couchée.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q3. Concernant l’airway closure (fermeture des voies aériennes), caractériser par Vrai ou Faux chacune des propositions suivantes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elle est un des facteurs responsables de la baisse de la PaO2 avec l'âge.      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elle est affectée par la gravité.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elle n'existe jamais à la CRF.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q39. Concernant la ventilation et les volumes, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un VEMS de 3000 ml et une CVF de 3000 ml sont physiologiquement impossibles.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si un volume courant de 600 ml (espace mort de 150 mil} est doublé avec une fréquence respiratoire constante, là PaCO2 passera de 40 à 17 mmHg.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q38. Concernant l'analyse de résultats d'examens des gaz du sang, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le contenu en O2 est une fonction pratiquement linéaire de la saturation en O2   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La PaO2 et le contenu en O2 sont diminués lors d'une intoxication au monoxyde de carbone.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En administrant de l'O2 à concentration fractionnaire maximale chez un sujet normal, on ne doit pas être étonné si la PaO2 dépasse 500 mmHg.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q37. Concernant les muscles respiratoires, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une transsection cervicale D1 est associée à une paralysie de tous les muscles inspiratoires primaires.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le diaphragme a une action inspiratoire sur le gril costal inférieur.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'augmentation de pression pleurale est responsable de l'ascension inspiratoire du diaphragme paralysé.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q37. Concernant la ventilation et les volumes, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un VEMS s'exprime en unité de volume par seconde.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si on maintient une ventilation minute constante en augmentant la fréquence respiratoire, la PaCO2 augmentera.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q32. Concernant la cascade de l'oxygène, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La AaPO2 n'est pas influencée par la ventilation alvéolaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q19. Concernant l'analyse de résultats d'examens des gaz du sang, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si la PaCO2 double, c'est que la ventilation alvéolaire a été divisée par deux.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le shunt est la seule situation où administrer de l'O2 ne permettra pas de corriger l'hypoxémie au niveau espéré.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q14. Concernant l'air alvéolaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Il est idéalement analysé sur tout l'air expiré collecté dans un grand sac.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pendant la respiration calme, il est saturé en vapeur d'eau   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression partielle en O2 chute par rapport à celle de l'air inspiré.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q10. Concernant la diffusion pulmonaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En physiopathologie, elle est probablement le facteur le moins important d'une AaPO2 élevée.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elle a une composante membranaire et vasculaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La loi de Boyle permet sa mesure.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q38. La respiration calme est liée principalement à l'action d'un groupe de muscles inspiratoires. Parmi les trois  propositions suivantes, caractériser par Vrai ou Faux chacune des propositions.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les muscles parasternaux en font partie.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le diaphragme agit sur le gril costal et l'abdomen.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La paralysie de l'un d'eux amènera souvent à une respiration paradoxale.    </t>
+  </si>
+  <si>
+    <t>La pression alvéolaire en O2 est toujours proche de la pression artériel en O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La ventilation alvéolaire est le volume d'air frais qui, chaque minute, atteint les alvéoles; il s’agit donc du  volume disponible pour les échanges gazeux. </t>
+  </si>
+  <si>
+    <t>C'est 15-20 moles par jour, il y a une erreur dans son cours parceque si on fait le calcul, sachant que on a 10-15mmoles/min et que y a 1440 minutes dans une journée, on retombe bien sur les 15-20 moles/jours.</t>
+  </si>
+  <si>
+    <t>10 cycles/min * 500ml = 5L/min</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La quantité d'O2 liée à l'hémoglobine (Hb) dépend de la quantité d'Hb et de la PaO2.  </t>
+  </si>
+  <si>
+    <t>/!\ La saturation dépend de la PaO2 mais ne dépend pas de la concentration d'hémoglobine car c'est un rapport de la quantité d'hémoglobine lié à l'O2 sur la quantitée d'hémoglobine en tout. En gros c'est une indication pour savoir la fraction d'hémoglobine qui sera liée à l'O2 à tel pression partiel en O2 dans le sang. CEPENDANT, la quantité d'O2 liée à l'hémoglobine dépend bien de la concentration en Hb et de la pression arteriel en O2 car on multiplie la fraction d'hémoglobine qui peut se liée à l'O2 à tel PaO2 (aka la saturation) par la quantité d'Hb (aka la concentration [Hb])</t>
+  </si>
+  <si>
+    <t>Ce sont les chémorécepteurs périphériques qui sont à la fois sensible à la PO2, PCO2 et pH, les chémorécepteurs centraux ne sont pas sensible à la PO2</t>
+  </si>
+  <si>
+    <t>Puisque l'air expiré contient l'air coincée dans l'espace mort et l'air dans les alvéoles, au début de l'expiration, l'air qui va sortir en premier sera l'air qui était coincé dans l'espace mort anatomique (c'est comme une pile de vetement où le dernier qui rentre est le premier qui sort), du coup au début de l'expiration, la composition de l'air sera sensiblement la même que celle de l'air inspiré, car puisqu'elle était coincée dans l'espace alvéolaire, elle ne pouvait pas changer. A la fin de l'expiration, c'est de l'air qui était dans les alvéoles qui va finir par sortir, et donc sa composition sera sensiblement la même que celle de l'air alvéolaire</t>
+  </si>
+  <si>
+    <t>chokbar du mec qui a mit vrai à celle là</t>
+  </si>
+  <si>
+    <t>Pression partielle = Pression totale * fraction = 800mmHg * 30% = 240 mmHg</t>
+  </si>
+  <si>
+    <t>Pas à bas débit car reçoit 100% du sang</t>
+  </si>
+  <si>
+    <t>pas entièrement</t>
+  </si>
+  <si>
+    <t>Non c'est le pneumocyte de type II (car le surfactant c'est un rôle de soutient donc c'est comme un joueur 2 alors que le pneumocyte de type I il fait tout le taf de la respiration)</t>
+  </si>
+  <si>
+    <t>0,0013 mM/mmHg * 100 mmHg = 0,13mM et non 0,013mM</t>
+  </si>
+  <si>
+    <t>Il est limité par la diffusion et non la perfusion. En gros, le CO il a tellement d'affinité avec l'hémoglobine qu'il ne va jamais se retrouver solo dans le sang, et du coup la concentration plasmatique du CO sera toujours quasi nul, donc le gradient de concentration en CO entre l'espace alvéolaire et capillaire sera toujours constant, et donc y aura que la diffusion qui sera le pb (et encore). Alors que dans un autre cas, le N2O ne se lie pas de ouf à l'hémoglobine, du coup lui il va bien rester solo dans le plasma, et il va bien prendre de la place dans le plasma. Donc le gradient entre l'espace alvéolaire et capillaire sera bien bien réduit et pour remédier à ça, faudra bien faire cirucler le sang pour que le gradient revienne à son état initial. On dira donc dans ce cas que le N2O est limité par la perfusion</t>
+  </si>
+  <si>
+    <t>Faux elle s'arrete juste aux voies aériennes et aux bronches, c'est la circulation alvéolaire qui prend le relais</t>
+  </si>
+  <si>
+    <t>Il ne faut pas confondre ventilation alvéolaire et ventilation pulmonaire totale. Ici il faut donc soustraire l'espace mort anatomique (qui est de 150mL) et on a donc (500-150) * 10 = 3,5L/min</t>
+  </si>
+  <si>
+    <t>C'est au dessus de 70%</t>
+  </si>
+  <si>
+    <t>La compliance pulmonaire représente la capacité du poumon à pouvoir prendre un plus grand volume pour une certaine pression donnée. Ici, on voit que lorsqu'on passe du Volume Résiduel (VR) à la Capacité Pulmonaire Totale, puisque l'on doit vaincre les forces liés au tension de surface, la compliance sera donc moins grande qu'à l'expiration</t>
+  </si>
+  <si>
+    <t>On compare la cage thoracique plutôt à un ressort qui est comprimé plutôt que étiré. En effet, au VR, le recul élastique de la cage thoracique vient se taper avec le recul élastique du poumon pour finir à l'équilibre, or puisque le poumon est considéré comme un ressort étiré, inversement la cage thoracique est considéré comme un ressort comprimé</t>
+  </si>
+  <si>
+    <t>CPT = CV + VR, la CPT c'est tout le volume du poumon, la CV c'est tout le volume d'air que l'on peut mobiliser volontairement (soit le faire sortir soit entrer dans le poumon) et le VR c'est ce qui reste dans le poumon quand on est à l'expiration maximale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau de la CRF, il y a un équilibre entre le rappel élastique du poumon et le recul élastique de la cage  thoracique. </t>
+  </si>
+  <si>
+    <t>C'est cartilagineux jusqu'à la 10eme génération</t>
+  </si>
+  <si>
+    <t>C'est le surfactant qui empeche le collapsus des alvéoles avec la pression intrapleural NEGATIVE qui aide à tirer les parois des alvéoles vers l'extérieur</t>
+  </si>
+  <si>
+    <t>flm jtrouvais pas dans le cours</t>
+  </si>
+  <si>
+    <t>Non c'est juste la pression totale du mélange gazeux qui est égal à la somme des pressions partielles des gaz</t>
+  </si>
+  <si>
+    <t>Le poumon se rétracte mais la cage thoracique s'étend</t>
+  </si>
+  <si>
+    <t>Sachant que les voies inférieures représentent 50% de la résistance des voies aériennes (Raw) et que seulement 10% ont un diamètre inférieur à 2mm, alors 10% / 50%  = 20%, donc il y a bien à peu pres 80% de la résistance des voies inférieurs qui est située au niveau des voies larges et moyenne de plus de 2 mm de diamètre</t>
+  </si>
+  <si>
+    <t>Vu qu'il y a perte de l'effet de rappel elastique du poumon (par destruction de fibres élastiques), pour une même pression, le poumon va prendre un plus grand volume et donc il aura une plus grande compliance pulmonaire</t>
+  </si>
+  <si>
+    <t>mdrr tkt</t>
+  </si>
+  <si>
+    <t>C'est juste proportionnelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le coefficient de diffusion d'un gaz s'exprime en ml/(min.mmHg) et est inversement proportionnel à  l'épaisseur de la barrière de diffusion. </t>
+  </si>
+  <si>
+    <t>C'est un effet bronchodillateur (c'est l'inverse de la vascularisation)</t>
+  </si>
+  <si>
+    <t>Elle augmente mais vu qu'elle suit toujours la loi d'Henry, il n'y aura pas plus d'O2 dissout dans le sang même si la saturation est au maximum, les molécules d'O2 vont juste rester dans les alvéoles si elles ne peuvent pas être dissoutes ou liées à l'hémoglobine</t>
+  </si>
+  <si>
+    <t>150 - 36/0,8 = 105mmHg</t>
+  </si>
+  <si>
+    <t>Une pneumectomie est l'ablation d'un poumon. Lorsque l'on retire un poumon, à une pression donnée, vu que l'on aura plus qu'un poumon, la variation de volume sera diminuée de moitié, donc la compliance pulmonaire diminuera. Cependant, la compliance pulmonaire spécifique, qui caractérise l'elasticité du poumon, restera la même car le poumon restant est en bonne santé.</t>
+  </si>
+  <si>
+    <t>Justement ça veut plutôt dire que c'est dépendant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau pulmonaire, la diffusion du N2O est limitée par la perfusion.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la barrière de diffusion est altérée, il est rare de voir se développer une hypoxémie lorsqu'un effort  modéré est réalisé en altitude, </t>
+  </si>
+  <si>
+    <t>Il n'est pas rare de voir une hypoxémie dans ce cas là</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'équation des gaz alvéolaires est la suivante: PA_O2 = PA_O2 - (Pl_CO2/R)  </t>
+  </si>
+  <si>
+    <t>l'équation de con qu'ils ont mis dans le sujet mdrr</t>
+  </si>
+  <si>
+    <t>CPT = CRF + CV - VRE</t>
+  </si>
+  <si>
+    <t>C'est une expiration forcée, apres une expiration normal il reste le capacité résiduel fonctionnel</t>
+  </si>
+  <si>
+    <t>Si la barrière est épaissie ou endommagée, puisque le CO n'est limité que par la diffusion, il diffusera moins bien</t>
+  </si>
+  <si>
+    <t>Lors d'une anémie, ce n'est pas la saturation le problème (aka le taux d'Hb liée à l'O2) mais la quantitée d'Hb qui est insuffisante</t>
+  </si>
+  <si>
+    <t>Avec la spirométrie, on peut mesurer tout ce qui est mobilisable (ce qui n'est pas en rouge)</t>
+  </si>
+  <si>
+    <t>Non c'est le poumon gauche qui se rétracte</t>
+  </si>
+  <si>
+    <t>Il augmente</t>
+  </si>
+  <si>
+    <t>Les veines bronchiques sont désoxygénés et pulmonaires sont oxygénés</t>
+  </si>
+  <si>
+    <t>C'est l'inverse</t>
+  </si>
+  <si>
+    <t>Encore une fois c'est l'inverse</t>
+  </si>
+  <si>
+    <t>C'est le CO2 qui est 20x plus soluble que l'O2</t>
+  </si>
+  <si>
+    <t>C'est 10 fois plus</t>
+  </si>
+  <si>
+    <t>C'est limitée par la perfusion</t>
+  </si>
+  <si>
+    <t>C'est pas à chaque cycle mais c'est par minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque V_A  = 5 L/min et PaCO2 = 30 mm Hg, la PaCO2 sera de 60 mmHg si V_A diminue de moitié,  considérant que la production de CO2 reste inchangée.   </t>
+  </si>
+  <si>
+    <t>Si V_A diminue de moitié alors que VCO2 reste intacte, alors PaCO2 va doubler</t>
+  </si>
+  <si>
+    <t>Faux c'est l'espace mort physiologique qui est la somme des deux autres</t>
+  </si>
+  <si>
+    <t>Si ça rend compte de la moitié, c'est que grâce à ça on double la quantitée de CO2 libérée</t>
+  </si>
+  <si>
+    <t>Vu qu'ils sont inversement proportionnel l'un de l'autre, c'est un bon indicateur</t>
+  </si>
+  <si>
+    <t>12*(450-150) = 3600 = 3,6L/min</t>
+  </si>
+  <si>
+    <t>C'est effort dépendant qu'à haut volume pulmonaire, à bas volume pulmonaire, peu importe à quel point tu souffles, tu vas pas sortir plus rapidement de l'air</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lorsque la PaO2 se situe entre 70 et 100 mm Hg, la saturation de l’hémoglobine reste supérieure à 92% et la quantité d’O2 liée à l’hémoglobine reste importante.  </t>
+  </si>
+  <si>
+    <t>attention à l'erreur typographique</t>
+  </si>
+  <si>
+    <t>nan elle diminue</t>
+  </si>
+  <si>
+    <t>Le CO2 est aussi limitée par la perfusion</t>
+  </si>
+  <si>
+    <t>Pas obligatoirement, imaginons le cas où y a une respiration suffisament rapide mais trop superficielle pour que l'air entre dans les alvéoles et ne reste que dans l'espace mort anatomique. Etant assez rapide, on pourrait imaginer un cas ou on arrive à compenser par la vitesse le faible volume inspiré à chaque cycle, et donc la respiration pulmonaire totale pourrait rester la même, cependant vu qu'aucun volume d'air n'arrive dans les alvéoles, la respiration alvéolaire serait extremement diminuée (nulle dans ce cas là)</t>
+  </si>
+  <si>
+    <t>la question de psychopathe mdrrrrrrr</t>
+  </si>
+  <si>
+    <t>La cage thoracique se distend à gauche, la partie droite reste normale</t>
+  </si>
+  <si>
+    <t>Ca diminue</t>
+  </si>
+  <si>
+    <t>Mobilisable = echangeable. Le spirometre ne peut mesurer que les variations de volume</t>
+  </si>
+  <si>
+    <t>elle diminue</t>
+  </si>
+  <si>
+    <t>Dans les conditions normales, uniquement pas la perfusion</t>
+  </si>
+  <si>
+    <t>pas uniquement</t>
+  </si>
+  <si>
+    <t>Pendant la déflation</t>
+  </si>
+  <si>
+    <t>C'est dépendant vu que inversement proportionnel</t>
+  </si>
+  <si>
+    <t>CV = CPT-VR</t>
+  </si>
+  <si>
+    <t>On est autour de 60mmHg</t>
+  </si>
+  <si>
+    <t>ça dépend de la PO2</t>
+  </si>
+  <si>
+    <t>C'est favorisé par la diminution du pH</t>
+  </si>
+  <si>
+    <t>C'est limitée par la perfusion car le gradient s'annule très vite</t>
+  </si>
+  <si>
+    <t>à partir de la 10eme</t>
+  </si>
+  <si>
+    <t>Uniquement à cause de la diminution de la pression atmosphérique, la fraction reste la même</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le transfert du N20 à travers la barrière alvéolo-capillaire est limité par la perfusion compte tenu de l'absence  de liaison du N2O avec l'hémoglobine.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la fréquence respiratoire est de 20 cycles/min et le volume courant de 400 ml, la ventilation alvéolaire  est de 8L/min   </t>
+  </si>
+  <si>
+    <t>Pas ventilation alvéolaire mais ventilation pulmonaire totale</t>
+  </si>
+  <si>
+    <t>On calcule le rapport de Tiffenau : VEMS/CVF = 1,4/4,6 = 0,3&lt; 0,7 (la valeur normale) donc il a probablement un syndrome obstructif et non restrictif</t>
+  </si>
+  <si>
+    <t>Ne dépend du volume</t>
+  </si>
+  <si>
+    <t>C'est une augmentation de la fréquence et non de la pression pulmonaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A 7000 m d'altitude et en considérant que la Patm est de 0,4 atm, la PlO2 est de 54 mmHg    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachant qu'il y a 21% d'O2 dans l'air, alors FIO2 = 0,21, or la pression à 7000m vaut 0,4atm = 0,4*760mmHg = 304mmHg, et PH2o = 47mmHg donc PIO2 =(P-PH2O) * FIO2 = 54 mmHg </t>
+  </si>
+  <si>
+    <t>Non elle est plus autour de 70-75%</t>
+  </si>
+  <si>
+    <t>c'est l'inverse, elle diminue de moitié</t>
+  </si>
+  <si>
+    <t>c'est l'espace mort anatomique</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La ventilation alvéolaire se calcule par la formule: VA = FR * VC où FR est la fréquence respiratoire et VC est le volume courant.     </t>
+  </si>
+  <si>
+    <t>ne pas oublier l'espace mort</t>
+  </si>
+  <si>
+    <t>par contre FIO2 reste la même</t>
+  </si>
+  <si>
+    <t>augmentation de l'espace mort alvéolaire -&gt; augmentation de l'espace mort  physiologique</t>
+  </si>
+  <si>
+    <t>Uniquement par la circulation pulmonaire, la circulation bronchique vascularise les bronches</t>
+  </si>
+  <si>
+    <t>Il faut pas oublier le volume courant</t>
+  </si>
+  <si>
+    <t>0,2*600 = 120 mmHg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez un individu normal, à la CRF, le rappel du poumon l'emporte sur le recul de la cage thoracique.     </t>
+  </si>
+  <si>
+    <t>C'est à l'équilibre</t>
+  </si>
+  <si>
+    <t>Vu que la PaCO2 est pareille que la PACO2, alors le gradient initial entre le capillaire et les alvéoles est équivalent au gradient entre le sang veineux mêlé (qui rentre) et le sang artériel (qui sort)</t>
+  </si>
+  <si>
+    <t>ça dépend  aussi de la PO2</t>
+  </si>
+  <si>
+    <t>en respirant, on abaisse la pression intrapleural dans un premier temps (en augmentant le volume intrapleural car on ecarte le diaphragme du poumon) et cette pression intrapleural en diminuant va tirer sur le poumon en essayant de vaincre le rappel elastique et le</t>
+  </si>
+  <si>
+    <t>Je sais pas pk ils disent que c'est vrai</t>
+  </si>
+  <si>
+    <t>Oui psk la capacité dépend de la concentration</t>
+  </si>
+  <si>
+    <t>Nan psk la solubilité de l'O2 dans le sang est trop faible donc même si on était à 100% en fraction inspiré, ça ne serait pas suffisant</t>
+  </si>
+  <si>
+    <t>Je trouve pas de justification dans le cours</t>
+  </si>
+  <si>
+    <t>Apres une expiration forcée</t>
+  </si>
+  <si>
+    <t>Logique vu que CPT = max du volume et que le poumon c'est comme un elastique qui veut reprendre sa forme initiale</t>
+  </si>
+  <si>
+    <t>ça existe pas seuil ventilatoire dans son cours donc jpense elle parle du seuil anaérobie</t>
+  </si>
+  <si>
+    <t>Cohérent car c'est censé augmenter de manière linéaire avant le seuil anaérobique</t>
+  </si>
+  <si>
+    <t>Pas que la diffusion, ça peut aussi être à cause du shunt ou du rapport Q/VA</t>
+  </si>
+  <si>
+    <t>Le gaz inerte vu qu'il interagit avec personne il va vite combler le gradient de pression -&gt; sera limitée par la perfusion et non par la diffusion</t>
+  </si>
+  <si>
+    <t>Non FIO2 reste intacte, c'est juste la pression atmosphérique qui diminue avec l'altitude</t>
+  </si>
+  <si>
+    <t>A la fin de l'expiration, l'air vicié sera au niveau de la bouche à la pression partiel du CO2 élevé tandis que dans les alvéoles, qui a été un peu nettoyé, ça sera juste un peu inférieur</t>
+  </si>
+  <si>
+    <t>faux c'est la CRF</t>
+  </si>
+  <si>
+    <t>CPT = CRF + VC + VRI et là ça fonctionne pas</t>
+  </si>
+  <si>
+    <t>Les volumes mobilisables sont mesuré par spirométrie, ceux non mobilisables sont mesurée par pléthysmographie</t>
+  </si>
+  <si>
+    <t>Honnetement celle là j'ai pas compris et je trouve pas dans le cours mais c'est Vrai askip</t>
+  </si>
+  <si>
+    <t>PA puis Pc puis Pa</t>
+  </si>
+  <si>
+    <t>En diminuant la PaO2, on augmente la différence entre PAO2 et PaO2 et donc la AaO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CI = CPT - VRE - VR    </t>
+  </si>
+  <si>
+    <t>Il ne faut pas oublier qu'à bas volume, l'expiration n'est pas effort dépendant donc on ne peux pas vider son poumon plus rapidement qu'une seconde peut importe l'effort qu'on y met</t>
+  </si>
+  <si>
+    <t>1200-150 = 1050ml, VCO2 = 40mmHg * K * nbCycle*(600-150) = 40mmHg / K * nbCycle* 450, donc PACO2 = K * 40mmHg / K *  nbCycle * 450 / nbCycle*1050 = 40*450/1050 = 17,14mmHg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CPT diminue et VEMS/CVF diminue : c'est la conjonction d'un trouble obstructif et d’un trouble restrictif.    </t>
+  </si>
+  <si>
+    <t>emphasis sur le pratiquement</t>
+  </si>
+  <si>
+    <t>La PaO2 reste normale</t>
+  </si>
+  <si>
+    <t>sachant qu'à FIO2 normal on est à 21% pour 104mmHg, à 100% (qui est 5 fois plus concentré) on sera au dessus de 500mmHg</t>
+  </si>
+  <si>
+    <t>D1 = Th1, or le nerf phrénique sort de C3,C4 et C5 donc il reste intacte</t>
+  </si>
+  <si>
+    <t>L'augmentation de la pression pleural va pousser le diaphragme vers le bas, cela aurait été correct si on aurait parlé de diminution de la pression pleural</t>
+  </si>
+  <si>
+    <t>C'est juste un volume puisqu'on sait déjà que ça se passe en une seconde. Si on avait du faire une moyenne sur un laps de temps plus long, on aurait pu l'exprimer en volume par seconde</t>
+  </si>
+  <si>
+    <t>Si l'on maintient la ventilation minute constante en augmentant la fréquence respiratoire, cela veut dire que le volume courant diminue. Or si le volume courant diminue, alors que le volume mort ne change pas, ça veut dire que le volume d'air qui arrive à l'espace alvéolaire diminue de ouf et donc la ventilation alvéolaire aussi diminue (et la fréquence respiratoire bien qu'elle augmente, n'arrive pas à compenser cette diminution). Du coup la ventilation alvéolaire ayant diminué va faire monter la PaCO2 d'apres l'équation de la ventilation alvéolaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VEMS/CVF qui diminue avec VEMS qui diminue de fou et CVF  qui diminue est signe un trouble ventilatoire obstructif ; il faudra évaluer la CPT pour confirmer/infirmer l'existence d'un trouble restrictif surajouté.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le contenu en O2 est une fonction virtuellement linéaire de la saturation en O2.    </t>
+  </si>
+  <si>
+    <t>ils sont insupportables à jouer sur les mots genre virtuellement cv dire quoi ptdr</t>
+  </si>
+  <si>
+    <t>qu'est ce que jt'aime l'equation de la ventilation alvéolaire</t>
+  </si>
+  <si>
+    <t>probablement</t>
+  </si>
+  <si>
+    <t>ça permet juste de savoir que PV = cste mais ça aide pas à calculer la capacité de diffusion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +1301,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,12 +1332,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,17 +1691,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112:B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="73.28515625" customWidth="1"/>
-    <col min="5" max="5" width="53.7109375" customWidth="1"/>
+    <col min="2" max="2" width="175.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="90.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -462,37 +1725,37 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>275</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -502,17 +1765,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>276</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -522,117 +1785,117 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>277</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>278</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+        <v>279</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>280</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>281</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>282</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -642,17 +1905,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -662,17 +1925,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -682,17 +1945,17 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -702,17 +1965,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -722,37 +1985,37 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
@@ -762,57 +2025,57 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>284</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -822,97 +2085,97 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>286</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>288</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>289</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
@@ -922,17 +2185,17 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -942,17 +2205,17 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
@@ -962,17 +2225,17 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -982,57 +2245,57 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>290</v>
       </c>
       <c r="F28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>291</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
@@ -1042,17 +2305,17 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -1062,97 +2325,97 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>292</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>293</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>294</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
+        <v>39</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>295</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
@@ -1162,17 +2425,17 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
+        <v>296</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
@@ -1182,17 +2445,17 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
@@ -1202,37 +2465,37 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>297</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
@@ -1242,97 +2505,97 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
+      <c r="C42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>299</v>
       </c>
       <c r="F42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
+        <v>46</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="F43" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>301</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>6</v>
+        <v>48</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
@@ -1342,57 +2605,57 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>302</v>
       </c>
       <c r="F46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>303</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
@@ -1402,57 +2665,57 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>304</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" t="s">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>305</v>
       </c>
       <c r="F50" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
+        <v>306</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>6</v>
@@ -1462,17 +2725,17 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
       </c>
       <c r="E52" t="s">
         <v>6</v>
@@ -1482,17 +2745,17 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
-        <v>6</v>
+        <v>55</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
@@ -1502,37 +2765,37 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>307</v>
       </c>
       <c r="F54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
       </c>
       <c r="E55" t="s">
         <v>6</v>
@@ -1542,37 +2805,37 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" t="s">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>308</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" t="s">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
@@ -1582,17 +2845,17 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
       </c>
       <c r="E58" t="s">
         <v>6</v>
@@ -1602,17 +2865,17 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
       </c>
       <c r="E59" t="s">
         <v>6</v>
@@ -1622,57 +2885,57 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>309</v>
       </c>
       <c r="F60" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" t="s">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>310</v>
       </c>
       <c r="F61" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
       </c>
       <c r="E62" t="s">
         <v>6</v>
@@ -1682,37 +2945,37 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" t="s">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>311</v>
       </c>
       <c r="F63" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" t="s">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
       </c>
       <c r="E64" t="s">
         <v>6</v>
@@ -1722,17 +2985,17 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" t="s">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
@@ -1742,17 +3005,17 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
       </c>
       <c r="E66" t="s">
         <v>6</v>
@@ -1762,17 +3025,17 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" t="s">
-        <v>6</v>
+        <v>312</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
       </c>
       <c r="E67" t="s">
         <v>6</v>
@@ -1782,37 +3045,37 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" t="s">
-        <v>6</v>
+        <v>313</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>314</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" t="s">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
       </c>
       <c r="E69" t="s">
         <v>6</v>
@@ -1822,37 +3085,37 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" t="s">
-        <v>6</v>
+        <v>315</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>316</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
       </c>
       <c r="E71" t="s">
         <v>6</v>
@@ -1862,57 +3125,57 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>317</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>318</v>
       </c>
       <c r="F73" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" t="s">
-        <v>6</v>
+        <v>74</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
       </c>
       <c r="E74" t="s">
         <v>6</v>
@@ -1922,37 +3185,37 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>6</v>
+        <v>319</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
       </c>
       <c r="E76" t="s">
         <v>6</v>
@@ -1962,17 +3225,17 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" t="s">
-        <v>6</v>
+        <v>78</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
       </c>
       <c r="E77" t="s">
         <v>6</v>
@@ -1982,17 +3245,17 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
       </c>
       <c r="E78" t="s">
         <v>6</v>
@@ -2002,17 +3265,17 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
       </c>
       <c r="E79" t="s">
         <v>6</v>
@@ -2022,77 +3285,77 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" t="s">
-        <v>6</v>
+        <v>84</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>6</v>
+        <v>321</v>
       </c>
       <c r="F81" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s">
-        <v>6</v>
+        <v>85</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
+        <v>322</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" t="s">
-        <v>6</v>
+        <v>87</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
       </c>
       <c r="E83" t="s">
         <v>6</v>
@@ -2102,17 +3365,17 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" t="s">
-        <v>6</v>
+        <v>88</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
       </c>
       <c r="E84" t="s">
         <v>6</v>
@@ -2122,37 +3385,37 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" t="s">
-        <v>6</v>
+        <v>89</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>6</v>
+        <v>323</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" t="s">
-        <v>6</v>
+        <v>91</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
       </c>
       <c r="E86" t="s">
         <v>6</v>
@@ -2162,97 +3425,97 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" t="s">
-        <v>6</v>
+        <v>92</v>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>6</v>
+        <v>324</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" t="s">
-        <v>6</v>
+        <v>93</v>
+      </c>
+      <c r="D88" t="b">
+        <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>325</v>
       </c>
       <c r="F88" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" t="s">
-        <v>6</v>
+        <v>94</v>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>6</v>
+        <v>326</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" t="s">
-        <v>6</v>
+        <v>95</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
+        <v>327</v>
       </c>
       <c r="F90" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" t="s">
-        <v>6</v>
+        <v>96</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
       </c>
       <c r="E91" t="s">
         <v>6</v>
@@ -2262,17 +3525,17 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" t="s">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
       </c>
       <c r="E92" t="s">
         <v>6</v>
@@ -2282,17 +3545,17 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" t="s">
-        <v>6</v>
+        <v>99</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
       </c>
       <c r="E93" t="s">
         <v>6</v>
@@ -2302,17 +3565,17 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" t="s">
-        <v>6</v>
+        <v>101</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
       </c>
       <c r="E94" t="s">
         <v>6</v>
@@ -2322,37 +3585,37 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" t="s">
-        <v>6</v>
+        <v>102</v>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>6</v>
+        <v>328</v>
       </c>
       <c r="F95" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" t="s">
-        <v>6</v>
+        <v>103</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
       </c>
       <c r="E96" t="s">
         <v>6</v>
@@ -2362,37 +3625,37 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" t="s">
-        <v>6</v>
+        <v>105</v>
+      </c>
+      <c r="D97" t="b">
+        <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>6</v>
+        <v>329</v>
       </c>
       <c r="F97" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" t="s">
-        <v>6</v>
+        <v>106</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
       </c>
       <c r="E98" t="s">
         <v>6</v>
@@ -2402,17 +3665,17 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" t="s">
-        <v>6</v>
+        <v>107</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
       </c>
       <c r="E99" t="s">
         <v>6</v>
@@ -2422,97 +3685,97 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" t="s">
-        <v>6</v>
+        <v>109</v>
+      </c>
+      <c r="D100" t="b">
+        <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>6</v>
+        <v>330</v>
       </c>
       <c r="F100" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" t="s">
-        <v>6</v>
+        <v>331</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>6</v>
+        <v>332</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" t="s">
-        <v>6</v>
+        <v>110</v>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>6</v>
+        <v>333</v>
       </c>
       <c r="F102" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" t="s">
-        <v>6</v>
+        <v>112</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="F103" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" t="s">
-        <v>6</v>
+        <v>113</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
       </c>
       <c r="E104" t="s">
         <v>6</v>
@@ -2522,17 +3785,17 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" t="s">
-        <v>6</v>
+        <v>114</v>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
       </c>
       <c r="E105" t="s">
         <v>6</v>
@@ -2542,26 +3805,2605 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" t="s">
-        <v>6</v>
+        <v>116</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>6</v>
+        <v>335</v>
       </c>
       <c r="F106" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="136" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>336</v>
+      </c>
+      <c r="F107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" t="s">
+        <v>118</v>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" t="s">
+        <v>120</v>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>337</v>
+      </c>
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>338</v>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>339</v>
+      </c>
+      <c r="F113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" t="s">
+        <v>124</v>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>125</v>
+      </c>
+      <c r="D115" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>340</v>
+      </c>
+      <c r="F115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>126</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" t="s">
+        <v>127</v>
+      </c>
+      <c r="D117" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>341</v>
+      </c>
+      <c r="F117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>342</v>
+      </c>
+      <c r="F118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>128</v>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>130</v>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" t="s">
+        <v>131</v>
+      </c>
+      <c r="D121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>343</v>
+      </c>
+      <c r="F121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>132</v>
+      </c>
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>133</v>
+      </c>
+      <c r="D123" t="b">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>344</v>
+      </c>
+      <c r="F123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>134</v>
+      </c>
+      <c r="D124" t="b">
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>345</v>
+      </c>
+      <c r="F124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>135</v>
+      </c>
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>346</v>
+      </c>
+      <c r="F125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>136</v>
+      </c>
+      <c r="D126" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>137</v>
+      </c>
+      <c r="C127" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127" t="b">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>347</v>
+      </c>
+      <c r="F127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" t="s">
+        <v>139</v>
+      </c>
+      <c r="D128" t="b">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>348</v>
+      </c>
+      <c r="F128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" t="s">
+        <v>140</v>
+      </c>
+      <c r="D129" t="b">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" t="s">
+        <v>142</v>
+      </c>
+      <c r="D130" t="b">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>349</v>
+      </c>
+      <c r="F130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131" t="s">
+        <v>143</v>
+      </c>
+      <c r="D131" t="b">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>350</v>
+      </c>
+      <c r="F131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" t="s">
+        <v>144</v>
+      </c>
+      <c r="D132" t="b">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>351</v>
+      </c>
+      <c r="F132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>145</v>
+      </c>
+      <c r="C133" t="s">
+        <v>146</v>
+      </c>
+      <c r="D133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>352</v>
+      </c>
+      <c r="F133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>147</v>
+      </c>
+      <c r="C134" t="s">
+        <v>148</v>
+      </c>
+      <c r="D134" t="b">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>353</v>
+      </c>
+      <c r="F134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>147</v>
+      </c>
+      <c r="C135" t="s">
+        <v>149</v>
+      </c>
+      <c r="D135" t="b">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>354</v>
+      </c>
+      <c r="F135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>147</v>
+      </c>
+      <c r="C136" t="s">
+        <v>150</v>
+      </c>
+      <c r="D136" t="b">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>355</v>
+      </c>
+      <c r="F136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>151</v>
+      </c>
+      <c r="C137" t="s">
+        <v>152</v>
+      </c>
+      <c r="D137" t="b">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>151</v>
+      </c>
+      <c r="C138" t="s">
+        <v>153</v>
+      </c>
+      <c r="D138" t="b">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>151</v>
+      </c>
+      <c r="C139" t="s">
+        <v>154</v>
+      </c>
+      <c r="D139" t="b">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>356</v>
+      </c>
+      <c r="F139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>155</v>
+      </c>
+      <c r="C140" t="s">
+        <v>156</v>
+      </c>
+      <c r="D140" t="b">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>155</v>
+      </c>
+      <c r="C141" t="s">
+        <v>157</v>
+      </c>
+      <c r="D141" t="b">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>357</v>
+      </c>
+      <c r="F141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>155</v>
+      </c>
+      <c r="C142" t="s">
+        <v>158</v>
+      </c>
+      <c r="D142" t="b">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>358</v>
+      </c>
+      <c r="F142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>159</v>
+      </c>
+      <c r="C143" t="s">
+        <v>160</v>
+      </c>
+      <c r="D143" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>159</v>
+      </c>
+      <c r="C144" t="s">
+        <v>359</v>
+      </c>
+      <c r="D144" t="b">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>159</v>
+      </c>
+      <c r="C145" t="s">
+        <v>161</v>
+      </c>
+      <c r="D145" t="b">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>6</v>
+      </c>
+      <c r="F145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>162</v>
+      </c>
+      <c r="C146" t="s">
+        <v>163</v>
+      </c>
+      <c r="D146" t="b">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>6</v>
+      </c>
+      <c r="F146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>162</v>
+      </c>
+      <c r="C147" t="s">
+        <v>360</v>
+      </c>
+      <c r="D147" t="b">
+        <v>0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>361</v>
+      </c>
+      <c r="F147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>162</v>
+      </c>
+      <c r="C148" t="s">
+        <v>164</v>
+      </c>
+      <c r="D148" t="b">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>165</v>
+      </c>
+      <c r="C149" t="s">
+        <v>166</v>
+      </c>
+      <c r="D149" t="b">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>165</v>
+      </c>
+      <c r="C150" t="s">
+        <v>167</v>
+      </c>
+      <c r="D150" t="b">
+        <v>0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>362</v>
+      </c>
+      <c r="F150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>165</v>
+      </c>
+      <c r="C151" t="s">
+        <v>168</v>
+      </c>
+      <c r="D151" t="b">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>6</v>
+      </c>
+      <c r="F151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>169</v>
+      </c>
+      <c r="C152" t="s">
+        <v>170</v>
+      </c>
+      <c r="D152" t="b">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>363</v>
+      </c>
+      <c r="F152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>171</v>
+      </c>
+      <c r="C153" t="s">
+        <v>172</v>
+      </c>
+      <c r="D153" t="b">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>6</v>
+      </c>
+      <c r="F153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>171</v>
+      </c>
+      <c r="C154" t="s">
+        <v>173</v>
+      </c>
+      <c r="D154" t="b">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>364</v>
+      </c>
+      <c r="F154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>171</v>
+      </c>
+      <c r="C155" t="s">
+        <v>365</v>
+      </c>
+      <c r="D155" t="b">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>366</v>
+      </c>
+      <c r="F155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>174</v>
+      </c>
+      <c r="C156" t="s">
+        <v>175</v>
+      </c>
+      <c r="D156" t="b">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>174</v>
+      </c>
+      <c r="C157" t="s">
+        <v>176</v>
+      </c>
+      <c r="D157" t="b">
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>367</v>
+      </c>
+      <c r="F157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>174</v>
+      </c>
+      <c r="C158" t="s">
+        <v>177</v>
+      </c>
+      <c r="D158" t="b">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>178</v>
+      </c>
+      <c r="C159" t="s">
+        <v>179</v>
+      </c>
+      <c r="D159" t="b">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>368</v>
+      </c>
+      <c r="F159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>178</v>
+      </c>
+      <c r="C160" t="s">
+        <v>180</v>
+      </c>
+      <c r="D160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>369</v>
+      </c>
+      <c r="F160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>178</v>
+      </c>
+      <c r="C161" t="s">
+        <v>370</v>
+      </c>
+      <c r="D161" t="b">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>371</v>
+      </c>
+      <c r="F161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>181</v>
+      </c>
+      <c r="C162" t="s">
+        <v>182</v>
+      </c>
+      <c r="D162" t="b">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>6</v>
+      </c>
+      <c r="F162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>181</v>
+      </c>
+      <c r="C163" t="s">
+        <v>183</v>
+      </c>
+      <c r="D163" t="b">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>372</v>
+      </c>
+      <c r="F163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>181</v>
+      </c>
+      <c r="C164" t="s">
+        <v>184</v>
+      </c>
+      <c r="D164" t="b">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>373</v>
+      </c>
+      <c r="F164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>185</v>
+      </c>
+      <c r="C165" t="s">
+        <v>186</v>
+      </c>
+      <c r="D165" t="b">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>374</v>
+      </c>
+      <c r="F165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>185</v>
+      </c>
+      <c r="C166" t="s">
+        <v>187</v>
+      </c>
+      <c r="D166" t="b">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>376</v>
+      </c>
+      <c r="F166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>141</v>
+      </c>
+      <c r="C167" t="s">
+        <v>188</v>
+      </c>
+      <c r="D167" t="b">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>141</v>
+      </c>
+      <c r="C168" t="s">
+        <v>189</v>
+      </c>
+      <c r="D168" t="b">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>375</v>
+      </c>
+      <c r="F168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>141</v>
+      </c>
+      <c r="C169" t="s">
+        <v>377</v>
+      </c>
+      <c r="D169" t="b">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>378</v>
+      </c>
+      <c r="F169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>190</v>
+      </c>
+      <c r="C170" t="s">
+        <v>191</v>
+      </c>
+      <c r="D170" t="b">
+        <v>1</v>
+      </c>
+      <c r="E170" t="s">
+        <v>379</v>
+      </c>
+      <c r="F170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>190</v>
+      </c>
+      <c r="C171" t="s">
+        <v>192</v>
+      </c>
+      <c r="D171" t="b">
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>380</v>
+      </c>
+      <c r="F171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>193</v>
+      </c>
+      <c r="C172" t="s">
+        <v>194</v>
+      </c>
+      <c r="D172" t="b">
+        <v>1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>381</v>
+      </c>
+      <c r="F172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>193</v>
+      </c>
+      <c r="C173" t="s">
+        <v>195</v>
+      </c>
+      <c r="D173" t="b">
+        <v>1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>193</v>
+      </c>
+      <c r="C174" t="s">
+        <v>196</v>
+      </c>
+      <c r="D174" t="b">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>382</v>
+      </c>
+      <c r="F174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>147</v>
+      </c>
+      <c r="C175" t="s">
+        <v>197</v>
+      </c>
+      <c r="D175" t="b">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>383</v>
+      </c>
+      <c r="F175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>147</v>
+      </c>
+      <c r="C176" t="s">
+        <v>198</v>
+      </c>
+      <c r="D176" t="b">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>384</v>
+      </c>
+      <c r="F176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>147</v>
+      </c>
+      <c r="C177" t="s">
+        <v>199</v>
+      </c>
+      <c r="D177" t="b">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>6</v>
+      </c>
+      <c r="F177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>200</v>
+      </c>
+      <c r="C178" t="s">
+        <v>201</v>
+      </c>
+      <c r="D178" t="b">
+        <v>0</v>
+      </c>
+      <c r="E178" t="s">
+        <v>6</v>
+      </c>
+      <c r="F178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>200</v>
+      </c>
+      <c r="C179" t="s">
+        <v>202</v>
+      </c>
+      <c r="D179" t="b">
+        <v>1</v>
+      </c>
+      <c r="E179" t="s">
+        <v>6</v>
+      </c>
+      <c r="F179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>200</v>
+      </c>
+      <c r="C180" t="s">
+        <v>203</v>
+      </c>
+      <c r="D180" t="b">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>6</v>
+      </c>
+      <c r="F180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>204</v>
+      </c>
+      <c r="C181" t="s">
+        <v>205</v>
+      </c>
+      <c r="D181" t="b">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
+        <v>385</v>
+      </c>
+      <c r="F181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>206</v>
+      </c>
+      <c r="C182" t="s">
+        <v>207</v>
+      </c>
+      <c r="D182" t="b">
+        <v>1</v>
+      </c>
+      <c r="E182" t="s">
+        <v>6</v>
+      </c>
+      <c r="F182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>206</v>
+      </c>
+      <c r="C183" t="s">
+        <v>208</v>
+      </c>
+      <c r="D183" t="b">
+        <v>0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>386</v>
+      </c>
+      <c r="F183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>206</v>
+      </c>
+      <c r="C184" t="s">
+        <v>209</v>
+      </c>
+      <c r="D184" t="b">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>387</v>
+      </c>
+      <c r="F184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>210</v>
+      </c>
+      <c r="C185" t="s">
+        <v>211</v>
+      </c>
+      <c r="D185" t="b">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>6</v>
+      </c>
+      <c r="F185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>210</v>
+      </c>
+      <c r="C186" t="s">
+        <v>212</v>
+      </c>
+      <c r="D186" t="b">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>210</v>
+      </c>
+      <c r="C187" t="s">
+        <v>213</v>
+      </c>
+      <c r="D187" t="b">
+        <v>1</v>
+      </c>
+      <c r="E187" t="s">
+        <v>6</v>
+      </c>
+      <c r="F187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>214</v>
+      </c>
+      <c r="C188" t="s">
+        <v>215</v>
+      </c>
+      <c r="D188" t="b">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>6</v>
+      </c>
+      <c r="F188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>214</v>
+      </c>
+      <c r="C189" t="s">
+        <v>216</v>
+      </c>
+      <c r="D189" t="b">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>388</v>
+      </c>
+      <c r="F189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>214</v>
+      </c>
+      <c r="C190" t="s">
+        <v>217</v>
+      </c>
+      <c r="D190" t="b">
+        <v>1</v>
+      </c>
+      <c r="E190" t="s">
+        <v>389</v>
+      </c>
+      <c r="F190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>218</v>
+      </c>
+      <c r="C191" t="s">
+        <v>219</v>
+      </c>
+      <c r="D191" t="b">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>390</v>
+      </c>
+      <c r="F191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>218</v>
+      </c>
+      <c r="C192" t="s">
+        <v>220</v>
+      </c>
+      <c r="D192" t="b">
+        <v>1</v>
+      </c>
+      <c r="E192" t="s">
+        <v>6</v>
+      </c>
+      <c r="F192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>218</v>
+      </c>
+      <c r="C193" t="s">
+        <v>221</v>
+      </c>
+      <c r="D193" t="b">
+        <v>0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>391</v>
+      </c>
+      <c r="F193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>222</v>
+      </c>
+      <c r="C194" t="s">
+        <v>223</v>
+      </c>
+      <c r="D194" t="b">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>392</v>
+      </c>
+      <c r="F194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>222</v>
+      </c>
+      <c r="C195" t="s">
+        <v>224</v>
+      </c>
+      <c r="D195" t="b">
+        <v>0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>393</v>
+      </c>
+      <c r="F195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>222</v>
+      </c>
+      <c r="C196" t="s">
+        <v>225</v>
+      </c>
+      <c r="D196" t="b">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>6</v>
+      </c>
+      <c r="F196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>226</v>
+      </c>
+      <c r="C197" t="s">
+        <v>227</v>
+      </c>
+      <c r="D197" t="b">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>394</v>
+      </c>
+      <c r="F197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>226</v>
+      </c>
+      <c r="C198" t="s">
+        <v>228</v>
+      </c>
+      <c r="D198" t="b">
+        <v>0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>395</v>
+      </c>
+      <c r="F198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>226</v>
+      </c>
+      <c r="C199" t="s">
+        <v>229</v>
+      </c>
+      <c r="D199" t="b">
+        <v>0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>396</v>
+      </c>
+      <c r="F199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>230</v>
+      </c>
+      <c r="C200" t="s">
+        <v>231</v>
+      </c>
+      <c r="D200" t="b">
+        <v>1</v>
+      </c>
+      <c r="E200" t="s">
+        <v>397</v>
+      </c>
+      <c r="F200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>230</v>
+      </c>
+      <c r="C201" t="s">
+        <v>232</v>
+      </c>
+      <c r="D201" t="b">
+        <v>0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>6</v>
+      </c>
+      <c r="F201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>230</v>
+      </c>
+      <c r="C202" t="s">
+        <v>233</v>
+      </c>
+      <c r="D202" t="b">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>398</v>
+      </c>
+      <c r="F202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>234</v>
+      </c>
+      <c r="C203" t="s">
+        <v>235</v>
+      </c>
+      <c r="D203" t="b">
+        <v>1</v>
+      </c>
+      <c r="E203" t="s">
+        <v>6</v>
+      </c>
+      <c r="F203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>234</v>
+      </c>
+      <c r="C204" t="s">
+        <v>236</v>
+      </c>
+      <c r="D204" t="b">
+        <v>1</v>
+      </c>
+      <c r="E204" t="s">
+        <v>6</v>
+      </c>
+      <c r="F204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>234</v>
+      </c>
+      <c r="C205" t="s">
+        <v>237</v>
+      </c>
+      <c r="D205" t="b">
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>399</v>
+      </c>
+      <c r="F205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>238</v>
+      </c>
+      <c r="C206" t="s">
+        <v>239</v>
+      </c>
+      <c r="D206" t="b">
+        <v>1</v>
+      </c>
+      <c r="E206" t="s">
+        <v>6</v>
+      </c>
+      <c r="F206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>238</v>
+      </c>
+      <c r="C207" t="s">
+        <v>400</v>
+      </c>
+      <c r="D207" t="b">
+        <v>0</v>
+      </c>
+      <c r="E207" t="s">
+        <v>6</v>
+      </c>
+      <c r="F207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>240</v>
+      </c>
+      <c r="C208" t="s">
+        <v>241</v>
+      </c>
+      <c r="D208" t="b">
+        <v>1</v>
+      </c>
+      <c r="E208" t="s">
+        <v>6</v>
+      </c>
+      <c r="F208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>240</v>
+      </c>
+      <c r="C209" t="s">
+        <v>242</v>
+      </c>
+      <c r="D209" t="b">
+        <v>1</v>
+      </c>
+      <c r="E209" t="s">
+        <v>6</v>
+      </c>
+      <c r="F209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>240</v>
+      </c>
+      <c r="C210" t="s">
+        <v>243</v>
+      </c>
+      <c r="D210" t="b">
+        <v>0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>6</v>
+      </c>
+      <c r="F210" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>244</v>
+      </c>
+      <c r="C211" t="s">
+        <v>245</v>
+      </c>
+      <c r="D211" t="b">
+        <v>1</v>
+      </c>
+      <c r="E211" t="s">
+        <v>401</v>
+      </c>
+      <c r="F211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>244</v>
+      </c>
+      <c r="C212" t="s">
+        <v>246</v>
+      </c>
+      <c r="D212" t="b">
+        <v>1</v>
+      </c>
+      <c r="E212" t="s">
+        <v>402</v>
+      </c>
+      <c r="F212" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>244</v>
+      </c>
+      <c r="C213" t="s">
+        <v>403</v>
+      </c>
+      <c r="D213" t="b">
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
+        <v>6</v>
+      </c>
+      <c r="F213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>247</v>
+      </c>
+      <c r="C214" t="s">
+        <v>248</v>
+      </c>
+      <c r="D214" t="b">
+        <v>1</v>
+      </c>
+      <c r="E214" t="s">
+        <v>404</v>
+      </c>
+      <c r="F214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>247</v>
+      </c>
+      <c r="C215" t="s">
+        <v>249</v>
+      </c>
+      <c r="D215" t="b">
+        <v>0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>405</v>
+      </c>
+      <c r="F215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>247</v>
+      </c>
+      <c r="C216" t="s">
+        <v>250</v>
+      </c>
+      <c r="D216" t="b">
+        <v>1</v>
+      </c>
+      <c r="E216" t="s">
+        <v>406</v>
+      </c>
+      <c r="F216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>251</v>
+      </c>
+      <c r="C217" t="s">
+        <v>252</v>
+      </c>
+      <c r="D217" t="b">
+        <v>0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>407</v>
+      </c>
+      <c r="F217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>251</v>
+      </c>
+      <c r="C218" t="s">
+        <v>253</v>
+      </c>
+      <c r="D218" t="b">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
+        <v>6</v>
+      </c>
+      <c r="F218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>251</v>
+      </c>
+      <c r="C219" t="s">
+        <v>254</v>
+      </c>
+      <c r="D219" t="b">
+        <v>0</v>
+      </c>
+      <c r="E219" t="s">
+        <v>408</v>
+      </c>
+      <c r="F219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>255</v>
+      </c>
+      <c r="C220" t="s">
+        <v>256</v>
+      </c>
+      <c r="D220" t="b">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>409</v>
+      </c>
+      <c r="F220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>255</v>
+      </c>
+      <c r="C221" t="s">
+        <v>257</v>
+      </c>
+      <c r="D221" t="b">
+        <v>1</v>
+      </c>
+      <c r="E221" t="s">
+        <v>410</v>
+      </c>
+      <c r="F221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>255</v>
+      </c>
+      <c r="C222" t="s">
+        <v>411</v>
+      </c>
+      <c r="D222" t="b">
+        <v>1</v>
+      </c>
+      <c r="E222" t="s">
+        <v>6</v>
+      </c>
+      <c r="F222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>258</v>
+      </c>
+      <c r="C223" t="s">
+        <v>259</v>
+      </c>
+      <c r="D223" t="b">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>6</v>
+      </c>
+      <c r="F223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>260</v>
+      </c>
+      <c r="C224" t="s">
+        <v>412</v>
+      </c>
+      <c r="D224" t="b">
+        <v>1</v>
+      </c>
+      <c r="E224" t="s">
+        <v>413</v>
+      </c>
+      <c r="F224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>260</v>
+      </c>
+      <c r="C225" t="s">
+        <v>261</v>
+      </c>
+      <c r="D225" t="b">
+        <v>1</v>
+      </c>
+      <c r="E225" t="s">
+        <v>414</v>
+      </c>
+      <c r="F225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>260</v>
+      </c>
+      <c r="C226" t="s">
+        <v>262</v>
+      </c>
+      <c r="D226" t="b">
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
+        <v>6</v>
+      </c>
+      <c r="F226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>263</v>
+      </c>
+      <c r="C227" t="s">
+        <v>264</v>
+      </c>
+      <c r="D227" t="b">
+        <v>0</v>
+      </c>
+      <c r="E227" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>263</v>
+      </c>
+      <c r="C228" t="s">
+        <v>265</v>
+      </c>
+      <c r="D228" t="b">
+        <v>1</v>
+      </c>
+      <c r="E228" t="s">
+        <v>6</v>
+      </c>
+      <c r="F228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>263</v>
+      </c>
+      <c r="C229" t="s">
+        <v>266</v>
+      </c>
+      <c r="D229" t="b">
+        <v>1</v>
+      </c>
+      <c r="E229" t="s">
+        <v>6</v>
+      </c>
+      <c r="F229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>267</v>
+      </c>
+      <c r="C230" t="s">
+        <v>268</v>
+      </c>
+      <c r="D230" t="b">
+        <v>1</v>
+      </c>
+      <c r="E230" t="s">
+        <v>415</v>
+      </c>
+      <c r="F230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>267</v>
+      </c>
+      <c r="C231" t="s">
+        <v>269</v>
+      </c>
+      <c r="D231" t="b">
+        <v>1</v>
+      </c>
+      <c r="E231" t="s">
+        <v>6</v>
+      </c>
+      <c r="F231" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>267</v>
+      </c>
+      <c r="C232" t="s">
+        <v>270</v>
+      </c>
+      <c r="D232" t="b">
+        <v>0</v>
+      </c>
+      <c r="E232" t="s">
+        <v>416</v>
+      </c>
+      <c r="F232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>271</v>
+      </c>
+      <c r="C233" t="s">
+        <v>272</v>
+      </c>
+      <c r="D233" t="b">
+        <v>1</v>
+      </c>
+      <c r="E233" t="s">
+        <v>6</v>
+      </c>
+      <c r="F233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>271</v>
+      </c>
+      <c r="C234" t="s">
+        <v>273</v>
+      </c>
+      <c r="D234" t="b">
+        <v>1</v>
+      </c>
+      <c r="E234" t="s">
+        <v>6</v>
+      </c>
+      <c r="F234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>271</v>
+      </c>
+      <c r="C235" t="s">
+        <v>274</v>
+      </c>
+      <c r="D235" t="b">
+        <v>1</v>
+      </c>
+      <c r="E235" t="s">
+        <v>6</v>
+      </c>
+      <c r="F235" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Physiopathologie/Excel/respiratoire.xlsx
+++ b/Physiopathologie/Excel/respiratoire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D134DB2-61FF-48DB-9E7E-D4B27131A7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9046F093-A2F8-4DFF-AA1E-1F026A4BE014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -62,18 +62,12 @@
     <t xml:space="preserve"> Lorsque PaO2 devient &lt; 70 mm Hg et surtout à partir de 40 mm Hg, une faible diminution de PaO2 engendre une désaturation rapide et importante de l'hémoglobine,  </t>
   </si>
   <si>
-    <t xml:space="preserve"> La PO2 du sang veineux mêlé = 40 mm Hg et la PO2 du sang artériel = 100 mm Hg.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La production tissulaire de CO2 est de 15-20 mmoles par jour. </t>
   </si>
   <si>
     <t xml:space="preserve"> Lorsque la fréquence respiratoire = 10 cycles/min et le volume courant = 500 ml, la ventilation pulmonaire totale est de 5 L/min.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Les chémorécepteurs centraux sont surtout sensibles aux variations de PaCO2, mais également de pH et de PaO2 (lorsque PaO2 devient &lt; 60 mm Hg).  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La composition de l'air expiré varie progressivement pour atteindre, en fin d'expiration, la composition de l'air alvéolaire.  </t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t xml:space="preserve"> Le volume expiratoire maximal à la première seconde (VEMS) permet de calculer le rapport de Tiffeneau qui est supérieur à 80% chez le sujet normal.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le coefficient de diffusion (D_L } représente la capacité de diffusion d'un gaz et est proportionnel à la surface de la barrière de diffusion.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La spirométrie ne permet pas la mesure du volume résiduel, de la capacité résiduelle fonctionnelle et de la capacité pulmonaire totale. </t>
   </si>
   <si>
@@ -113,9 +104,6 @@
     <t xml:space="preserve"> Les pneumocytes de type I produisent le surfactant. </t>
   </si>
   <si>
-    <t xml:space="preserve"> Si la solubilité plasmatique de l’O2, est de 0,0013 mM/mmHg, à 37°C, la concentration d’'O2 dissout dans le  plasma est de 0,013 mM, lorsque PO2 = 100 mm Hg. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La diffusion alvéolaire du CO est limitée par la perfusion. </t>
   </si>
   <si>
@@ -143,9 +131,6 @@
     <t xml:space="preserve"> L'air alvéolaire a une PCO2 de 40 mmHg et une PO2 de 104 mmHg  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lorsque la ventilation alvéolaire double, la PAco2 diminue de moitié, considérant que la production de CO2 reste inchangée.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le rapport de Tiffeneau est le rapport entre le volume expiratoire maximal à la première seconde (VEMS) la capacité vitale forcée (CVF). Il est de 50% chez le sujet normal.  </t>
   </si>
   <si>
@@ -164,9 +149,6 @@
     <t xml:space="preserve"> Le surfactant est un composant de la barrière alvéolo-capillaire. </t>
   </si>
   <si>
-    <t xml:space="preserve"> La zone de conduction des voies aériennes inférieures se situe entre la 1° à la 16° génération et est entièrement cartilagineuse.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le système parasympathique induit une bronchoconstriction par effet M3 </t>
   </si>
   <si>
@@ -293,9 +275,6 @@
     <t xml:space="preserve"> La spirométrie permet de mesurer 3 volumes et 2 capacités.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lors d'un pneumothorax gauche, le poumon droit se rétracte et la cage thoracique gauche se distend,.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">24. Concernant le système respiratoire: </t>
   </si>
   <si>
@@ -341,9 +320,6 @@
     <t xml:space="preserve">28. Concernant le système respiratoire: </t>
   </si>
   <si>
-    <t xml:space="preserve"> La zone de conduction des voies aériennes inférieures se situe de la 1°° à la 16° génération, Cette zone est cartilagineuse jusqu'à la 10° génération et non cartilagineuse ensuite.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La vascularisation alvéolaire est très importante et il existe de 50 à 100 capillaires par alvéole.    </t>
   </si>
   <si>
@@ -446,9 +422,6 @@
     <t xml:space="preserve"> la spiromètre mesure uniquement les volumes échangeables. </t>
   </si>
   <si>
-    <t xml:space="preserve"> la zone de conduction des voies aériennes inférieures s'étend de la 1° à la 16° génération.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q16. Concernant la diffusion des gaz: </t>
   </si>
   <si>
@@ -500,9 +473,6 @@
     <t xml:space="preserve"> L'exercice musculaire important en altitude peut entraîner une hypoxémie chez le sujet normal.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le transfert du N20 à travers la barrière alvéolo-capillaire est limité par les caractéristiques de la barrière alvéolo-capillaire dans la mesure où le N20 ne se lie pas à l’hémoglobine.     </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q19. Concernant le système respiratoire: </t>
   </si>
   <si>
@@ -776,9 +746,6 @@
     <t xml:space="preserve"> Un VEMS de 3000 ml et une CVF de 3000 ml sont physiologiquement impossibles.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Si un volume courant de 600 ml (espace mort de 150 mil} est doublé avec une fréquence respiratoire constante, là PaCO2 passera de 40 à 17 mmHg.   </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q38. Concernant l'analyse de résultats d'examens des gaz du sang, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
@@ -866,9 +833,6 @@
     <t>La pression alvéolaire en O2 est toujours proche de la pression artériel en O2</t>
   </si>
   <si>
-    <t xml:space="preserve"> La ventilation alvéolaire est le volume d'air frais qui, chaque minute, atteint les alvéoles; il s’agit donc du  volume disponible pour les échanges gazeux. </t>
-  </si>
-  <si>
     <t>C'est 15-20 moles par jour, il y a une erreur dans son cours parceque si on fait le calcul, sachant que on a 10-15mmoles/min et que y a 1440 minutes dans une journée, on retombe bien sur les 15-20 moles/jours.</t>
   </si>
   <si>
@@ -1287,6 +1251,42 @@
   </si>
   <si>
     <t>ça permet juste de savoir que PV = cste mais ça aide pas à calculer la capacité de diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La PO2 du sang veineux mêlé = 40 mmHg et la PO2 du sang artériel = 100 mmHg.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La ventilation alvéolaire est le volume d'air frais qui, chaque minute, atteint les alvéoles : il s’agit donc du  volume disponible pour les échanges gazeux. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les chémorécepteurs centraux sont surtout sensibles aux variations de PaCO2, mais également de pH et de PaO2 (lorsque PaO2 devient &lt; 60 mmHg).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le coefficient de diffusion (D_L ) représente la capacité de diffusion d'un gaz et est proportionnel à la surface de la barrière de diffusion.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si la solubilité plasmatique de l’O2, est de 0,0013 mM/mmHg, à 37°C, la concentration d'O2 dissout dans le  plasma est de 0,013 mM, lorsque PO2 = 100 mm Hg. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la ventilation alvéolaire double, la PACO2 diminue de moitié, considérant que la production de CO2 reste inchangée.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La zone de conduction des voies aériennes inférieures se situe entre la 1ere à la 16eme génération et est entièrement cartilagineuse.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'un pneumothorax gauche, le poumon droit se rétracte et la cage thoracique gauche se distend.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La zone de conduction des voies aériennes inférieures se situe de la 1ere à la 16eme génération, Cette zone est cartilagineuse jusqu'à la 10eme génération et non cartilagineuse ensuite.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la zone de conduction des voies aériennes inférieures s'étend de la 1ere à la 16eme génération.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le transfert du N2O à travers la barrière alvéolo-capillaire est limité par les caractéristiques de la barrière alvéolo-capillaire dans la mesure où le N2O ne se lie pas à l’hémoglobine.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si un volume courant de 600 ml (espace mort de 150 ml) est doublé avec une fréquence respiratoire constante, là PaCO2 passera de 40 à 17 mmHg.   </t>
   </si>
 </sst>
 </file>
@@ -1693,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
   <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112:B126"/>
+    <sheetView tabSelected="1" topLeftCell="C207" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
@@ -1752,7 +1752,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>405</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>406</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1792,13 +1792,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1812,13 +1812,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1832,13 +1832,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -1852,13 +1852,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>407</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -1872,13 +1872,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -1892,7 +1892,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1912,7 +1912,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1952,7 +1952,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>408</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1972,7 +1972,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1992,13 +1992,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -2012,7 +2012,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2032,13 +2032,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -2052,13 +2052,13 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
@@ -2072,7 +2072,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -2092,13 +2092,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -2112,13 +2112,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
@@ -2132,13 +2132,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>409</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
@@ -2152,13 +2152,13 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
@@ -2172,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -2192,7 +2192,7 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2212,7 +2212,7 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2232,7 +2232,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2252,13 +2252,13 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="F28" t="s">
         <v>6</v>
@@ -2269,16 +2269,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
@@ -2289,10 +2289,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2309,10 +2309,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>410</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -2332,13 +2332,13 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F32" t="s">
         <v>6</v>
@@ -2352,13 +2352,13 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
@@ -2372,13 +2372,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
@@ -2392,13 +2392,13 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
@@ -2412,7 +2412,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -2432,7 +2432,7 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -2452,7 +2452,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -2472,13 +2472,13 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>411</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -2492,7 +2492,7 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -2512,13 +2512,13 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
@@ -2532,13 +2532,13 @@
         <v>6</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F42" t="s">
         <v>6</v>
@@ -2552,13 +2552,13 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="F43" t="s">
         <v>6</v>
@@ -2572,13 +2572,13 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
@@ -2592,7 +2592,7 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -2612,13 +2612,13 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="F46" t="s">
         <v>6</v>
@@ -2632,13 +2632,13 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
@@ -2652,7 +2652,7 @@
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -2672,13 +2672,13 @@
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -2692,13 +2692,13 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="F50" t="s">
         <v>6</v>
@@ -2712,7 +2712,7 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -2732,7 +2732,7 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D52" t="b">
         <v>1</v>
@@ -2752,7 +2752,7 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -2772,13 +2772,13 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F54" t="s">
         <v>6</v>
@@ -2792,7 +2792,7 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -2812,13 +2812,13 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
@@ -2832,7 +2832,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -2852,7 +2852,7 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -2872,7 +2872,7 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -2892,13 +2892,13 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F60" t="s">
         <v>6</v>
@@ -2912,13 +2912,13 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="F61" t="s">
         <v>6</v>
@@ -2932,7 +2932,7 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D62" t="b">
         <v>1</v>
@@ -2952,13 +2952,13 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="F63" t="s">
         <v>6</v>
@@ -2972,7 +2972,7 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -2992,7 +2992,7 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -3012,7 +3012,7 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D66" t="b">
         <v>1</v>
@@ -3032,7 +3032,7 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -3052,13 +3052,13 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F68" t="s">
         <v>6</v>
@@ -3072,7 +3072,7 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -3092,13 +3092,13 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="F70" t="s">
         <v>6</v>
@@ -3112,7 +3112,7 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -3129,16 +3129,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F72" t="s">
         <v>6</v>
@@ -3149,16 +3149,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C73" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="F73" t="s">
         <v>6</v>
@@ -3169,10 +3169,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
@@ -3189,16 +3189,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D75" t="b">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -3209,10 +3209,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
@@ -3229,10 +3229,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -3249,10 +3249,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D78" t="b">
         <v>1</v>
@@ -3269,10 +3269,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D79" t="b">
         <v>1</v>
@@ -3289,16 +3289,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C80" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -3309,16 +3309,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="F81" t="s">
         <v>6</v>
@@ -3329,16 +3329,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>412</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -3349,10 +3349,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D83" t="b">
         <v>1</v>
@@ -3369,10 +3369,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D84" t="b">
         <v>1</v>
@@ -3389,16 +3389,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C85" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -3409,10 +3409,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D86" t="b">
         <v>1</v>
@@ -3429,16 +3429,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F87" t="s">
         <v>6</v>
@@ -3449,16 +3449,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="F88" t="s">
         <v>6</v>
@@ -3472,13 +3472,13 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
@@ -3492,13 +3492,13 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F90" t="s">
         <v>6</v>
@@ -3512,7 +3512,7 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -3529,10 +3529,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C92" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D92" t="b">
         <v>1</v>
@@ -3549,10 +3549,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
@@ -3569,10 +3569,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>101</v>
+        <v>413</v>
       </c>
       <c r="D94" t="b">
         <v>1</v>
@@ -3589,16 +3589,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C95" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="F95" t="s">
         <v>6</v>
@@ -3609,10 +3609,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D96" t="b">
         <v>1</v>
@@ -3629,16 +3629,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="F97" t="s">
         <v>6</v>
@@ -3649,10 +3649,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D98" t="b">
         <v>1</v>
@@ -3669,10 +3669,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C99" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D99" t="b">
         <v>1</v>
@@ -3689,16 +3689,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F100" t="s">
         <v>6</v>
@@ -3709,16 +3709,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
@@ -3729,16 +3729,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="F102" t="s">
         <v>6</v>
@@ -3749,16 +3749,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="F103" t="s">
         <v>6</v>
@@ -3769,10 +3769,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D104" t="b">
         <v>1</v>
@@ -3789,10 +3789,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C105" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -3809,16 +3809,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F106" t="s">
         <v>6</v>
@@ -3829,16 +3829,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="F107" t="s">
         <v>6</v>
@@ -3849,10 +3849,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D108" t="b">
         <v>1</v>
@@ -3869,10 +3869,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -3889,10 +3889,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
@@ -3909,16 +3909,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="F111" t="s">
         <v>6</v>
@@ -3932,7 +3932,7 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
@@ -3952,13 +3952,13 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="F113" t="s">
         <v>6</v>
@@ -3972,7 +3972,7 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -3992,13 +3992,13 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="F115" t="s">
         <v>6</v>
@@ -4012,7 +4012,7 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D116" t="b">
         <v>1</v>
@@ -4032,13 +4032,13 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F117" t="s">
         <v>6</v>
@@ -4052,13 +4052,13 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="F118" t="s">
         <v>6</v>
@@ -4072,7 +4072,7 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D119" t="b">
         <v>1</v>
@@ -4092,7 +4092,7 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D120" t="b">
         <v>1</v>
@@ -4112,13 +4112,13 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="F121" t="s">
         <v>6</v>
@@ -4132,7 +4132,7 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D122" t="b">
         <v>1</v>
@@ -4152,13 +4152,13 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="F123" t="s">
         <v>6</v>
@@ -4172,13 +4172,13 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F124" t="s">
         <v>6</v>
@@ -4192,13 +4192,13 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D125" t="b">
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="F125" t="s">
         <v>6</v>
@@ -4212,7 +4212,7 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>136</v>
+        <v>414</v>
       </c>
       <c r="D126" t="b">
         <v>1</v>
@@ -4229,16 +4229,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="F127" t="s">
         <v>6</v>
@@ -4249,16 +4249,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="F128" t="s">
         <v>6</v>
@@ -4269,10 +4269,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D129" t="b">
         <v>1</v>
@@ -4289,16 +4289,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C130" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F130" t="s">
         <v>6</v>
@@ -4309,16 +4309,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="F131" t="s">
         <v>6</v>
@@ -4329,16 +4329,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="F132" t="s">
         <v>6</v>
@@ -4349,16 +4349,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D133" t="b">
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F133" t="s">
         <v>6</v>
@@ -4369,16 +4369,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C134" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F134" t="s">
         <v>6</v>
@@ -4389,16 +4389,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="F135" t="s">
         <v>6</v>
@@ -4409,16 +4409,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F136" t="s">
         <v>6</v>
@@ -4429,10 +4429,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C137" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D137" t="b">
         <v>1</v>
@@ -4449,10 +4449,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C138" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D138" t="b">
         <v>1</v>
@@ -4469,16 +4469,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>154</v>
+        <v>415</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="F139" t="s">
         <v>6</v>
@@ -4489,10 +4489,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C140" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D140" t="b">
         <v>1</v>
@@ -4509,16 +4509,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C141" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F141" t="s">
         <v>6</v>
@@ -4529,16 +4529,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="F142" t="s">
         <v>6</v>
@@ -4549,10 +4549,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C143" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D143" t="b">
         <v>1</v>
@@ -4569,10 +4569,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C144" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
@@ -4589,10 +4589,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C145" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D145" t="b">
         <v>1</v>
@@ -4609,10 +4609,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C146" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
@@ -4629,16 +4629,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C147" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
@@ -4649,10 +4649,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C148" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
@@ -4669,10 +4669,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C149" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D149" t="b">
         <v>1</v>
@@ -4689,16 +4689,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C150" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="F150" t="s">
         <v>6</v>
@@ -4709,10 +4709,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C151" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D151" t="b">
         <v>1</v>
@@ -4729,16 +4729,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C152" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F152" t="s">
         <v>6</v>
@@ -4749,10 +4749,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C153" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D153" t="b">
         <v>1</v>
@@ -4769,16 +4769,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C154" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="F154" t="s">
         <v>6</v>
@@ -4789,16 +4789,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C155" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D155" t="b">
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F155" t="s">
         <v>6</v>
@@ -4809,10 +4809,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C156" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D156" t="b">
         <v>1</v>
@@ -4829,16 +4829,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C157" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F157" t="s">
         <v>6</v>
@@ -4849,10 +4849,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C158" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
@@ -4869,16 +4869,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C159" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D159" t="b">
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="F159" t="s">
         <v>6</v>
@@ -4889,16 +4889,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C160" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D160" t="b">
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F160" t="s">
         <v>6</v>
@@ -4909,16 +4909,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C161" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F161" t="s">
         <v>6</v>
@@ -4929,10 +4929,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C162" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D162" t="b">
         <v>1</v>
@@ -4949,16 +4949,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C163" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D163" t="b">
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F163" t="s">
         <v>6</v>
@@ -4969,16 +4969,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C164" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D164" t="b">
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F164" t="s">
         <v>6</v>
@@ -4989,16 +4989,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C165" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D165" t="b">
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="F165" t="s">
         <v>6</v>
@@ -5009,16 +5009,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C166" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
       </c>
       <c r="E166" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F166" t="s">
         <v>6</v>
@@ -5029,10 +5029,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C167" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D167" t="b">
         <v>1</v>
@@ -5049,16 +5049,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C168" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F168" t="s">
         <v>6</v>
@@ -5069,16 +5069,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C169" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D169" t="b">
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="F169" t="s">
         <v>6</v>
@@ -5089,16 +5089,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C170" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D170" t="b">
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F170" t="s">
         <v>6</v>
@@ -5109,16 +5109,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C171" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="F171" t="s">
         <v>6</v>
@@ -5129,16 +5129,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C172" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D172" t="b">
         <v>1</v>
       </c>
       <c r="E172" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F172" t="s">
         <v>6</v>
@@ -5149,10 +5149,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C173" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D173" t="b">
         <v>1</v>
@@ -5169,16 +5169,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C174" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D174" t="b">
         <v>1</v>
       </c>
       <c r="E174" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="F174" t="s">
         <v>6</v>
@@ -5189,16 +5189,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C175" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D175" t="b">
         <v>1</v>
       </c>
       <c r="E175" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F175" t="s">
         <v>6</v>
@@ -5209,16 +5209,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C176" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D176" t="b">
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F176" t="s">
         <v>6</v>
@@ -5229,10 +5229,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C177" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D177" t="b">
         <v>1</v>
@@ -5249,10 +5249,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C178" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D178" t="b">
         <v>0</v>
@@ -5269,10 +5269,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C179" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D179" t="b">
         <v>1</v>
@@ -5289,10 +5289,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C180" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D180" t="b">
         <v>1</v>
@@ -5309,16 +5309,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C181" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D181" t="b">
         <v>1</v>
       </c>
       <c r="E181" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F181" t="s">
         <v>6</v>
@@ -5329,10 +5329,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C182" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D182" t="b">
         <v>1</v>
@@ -5349,16 +5349,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C183" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="D183" t="b">
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="F183" t="s">
         <v>6</v>
@@ -5369,16 +5369,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C184" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D184" t="b">
         <v>1</v>
       </c>
       <c r="E184" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F184" t="s">
         <v>6</v>
@@ -5389,10 +5389,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C185" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D185" t="b">
         <v>1</v>
@@ -5409,10 +5409,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C186" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D186" t="b">
         <v>1</v>
@@ -5429,10 +5429,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C187" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D187" t="b">
         <v>1</v>
@@ -5449,10 +5449,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C188" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D188" t="b">
         <v>1</v>
@@ -5469,16 +5469,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C189" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D189" t="b">
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="F189" t="s">
         <v>6</v>
@@ -5489,16 +5489,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C190" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D190" t="b">
         <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F190" t="s">
         <v>6</v>
@@ -5509,16 +5509,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C191" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="F191" t="s">
         <v>6</v>
@@ -5529,10 +5529,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C192" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D192" t="b">
         <v>1</v>
@@ -5549,16 +5549,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C193" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D193" t="b">
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F193" t="s">
         <v>6</v>
@@ -5569,16 +5569,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C194" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D194" t="b">
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="F194" t="s">
         <v>6</v>
@@ -5589,16 +5589,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C195" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D195" t="b">
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="F195" t="s">
         <v>6</v>
@@ -5609,10 +5609,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C196" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D196" t="b">
         <v>1</v>
@@ -5629,16 +5629,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C197" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D197" t="b">
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="F197" t="s">
         <v>6</v>
@@ -5649,16 +5649,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C198" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D198" t="b">
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
         <v>6</v>
@@ -5669,16 +5669,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C199" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D199" t="b">
         <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="F199" t="s">
         <v>6</v>
@@ -5689,16 +5689,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C200" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D200" t="b">
         <v>1</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
         <v>6</v>
@@ -5709,10 +5709,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C201" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D201" t="b">
         <v>0</v>
@@ -5729,16 +5729,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C202" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D202" t="b">
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="F202" t="s">
         <v>6</v>
@@ -5749,10 +5749,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C203" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D203" t="b">
         <v>1</v>
@@ -5769,10 +5769,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C204" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D204" t="b">
         <v>1</v>
@@ -5789,16 +5789,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C205" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D205" t="b">
         <v>1</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F205" t="s">
         <v>6</v>
@@ -5809,10 +5809,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C206" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D206" t="b">
         <v>1</v>
@@ -5829,10 +5829,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C207" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D207" t="b">
         <v>0</v>
@@ -5849,10 +5849,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C208" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D208" t="b">
         <v>1</v>
@@ -5869,10 +5869,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C209" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D209" t="b">
         <v>1</v>
@@ -5889,10 +5889,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C210" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D210" t="b">
         <v>0</v>
@@ -5909,16 +5909,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C211" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D211" t="b">
         <v>1</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="F211" t="s">
         <v>6</v>
@@ -5929,16 +5929,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C212" t="s">
-        <v>246</v>
+        <v>416</v>
       </c>
       <c r="D212" t="b">
         <v>1</v>
       </c>
       <c r="E212" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="F212" t="s">
         <v>6</v>
@@ -5949,10 +5949,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C213" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="D213" t="b">
         <v>1</v>
@@ -5969,16 +5969,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C214" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D214" t="b">
         <v>1</v>
       </c>
       <c r="E214" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="F214" t="s">
         <v>6</v>
@@ -5989,16 +5989,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C215" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D215" t="b">
         <v>0</v>
       </c>
       <c r="E215" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F215" t="s">
         <v>6</v>
@@ -6009,16 +6009,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C216" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D216" t="b">
         <v>1</v>
       </c>
       <c r="E216" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="F216" t="s">
         <v>6</v>
@@ -6029,16 +6029,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C217" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D217" t="b">
         <v>0</v>
       </c>
       <c r="E217" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F217" t="s">
         <v>6</v>
@@ -6049,10 +6049,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C218" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D218" t="b">
         <v>1</v>
@@ -6069,16 +6069,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C219" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D219" t="b">
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="F219" t="s">
         <v>6</v>
@@ -6089,16 +6089,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C220" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D220" t="b">
         <v>0</v>
       </c>
       <c r="E220" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F220" t="s">
         <v>6</v>
@@ -6109,16 +6109,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C221" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D221" t="b">
         <v>1</v>
       </c>
       <c r="E221" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="F221" t="s">
         <v>6</v>
@@ -6129,10 +6129,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C222" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D222" t="b">
         <v>1</v>
@@ -6149,10 +6149,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C223" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D223" t="b">
         <v>1</v>
@@ -6169,16 +6169,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C224" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D224" t="b">
         <v>1</v>
       </c>
       <c r="E224" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F224" t="s">
         <v>6</v>
@@ -6189,16 +6189,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C225" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D225" t="b">
         <v>1</v>
       </c>
       <c r="E225" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="F225" t="s">
         <v>6</v>
@@ -6209,10 +6209,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C226" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D226" t="b">
         <v>1</v>
@@ -6229,10 +6229,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C227" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D227" t="b">
         <v>0</v>
@@ -6249,10 +6249,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C228" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D228" t="b">
         <v>1</v>
@@ -6269,10 +6269,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C229" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D229" t="b">
         <v>1</v>
@@ -6289,16 +6289,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C230" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D230" t="b">
         <v>1</v>
       </c>
       <c r="E230" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F230" t="s">
         <v>6</v>
@@ -6309,10 +6309,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C231" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D231" t="b">
         <v>1</v>
@@ -6329,16 +6329,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C232" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D232" t="b">
         <v>0</v>
       </c>
       <c r="E232" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="F232" t="s">
         <v>6</v>
@@ -6349,10 +6349,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C233" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D233" t="b">
         <v>1</v>
@@ -6369,10 +6369,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C234" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D234" t="b">
         <v>1</v>
@@ -6389,10 +6389,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C235" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D235" t="b">
         <v>1</v>

--- a/Physiopathologie/Excel/respiratoire.xlsx
+++ b/Physiopathologie/Excel/respiratoire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9046F093-A2F8-4DFF-AA1E-1F026A4BE014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4FF7BE-9AE0-43F1-8AE4-7C68E21E97C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -1184,9 +1184,6 @@
     <t>A la fin de l'expiration, l'air vicié sera au niveau de la bouche à la pression partiel du CO2 élevé tandis que dans les alvéoles, qui a été un peu nettoyé, ça sera juste un peu inférieur</t>
   </si>
   <si>
-    <t>faux c'est la CRF</t>
-  </si>
-  <si>
     <t>CPT = CRF + VC + VRI et là ça fonctionne pas</t>
   </si>
   <si>
@@ -1287,6 +1284,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Si un volume courant de 600 ml (espace mort de 150 ml) est doublé avec une fréquence respiratoire constante, là PaCO2 passera de 40 à 17 mmHg.   </t>
+  </si>
+  <si>
+    <t>faux car c'est pas un équilibre vu que t'es obligé d'utiliser de l'energie pour contracter tes muscles inspiratoire -&gt; l'energie potentiel n'est pas minimal - &gt; pas un équilibre par définition</t>
   </si>
 </sst>
 </file>
@@ -1693,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
   <dimension ref="A1:F235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C207" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C217" sqref="C217"/>
+    <sheetView tabSelected="1" topLeftCell="C205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,7 +1752,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1852,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1952,7 +1952,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -2132,7 +2132,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -2472,7 +2472,7 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -3572,7 +3572,7 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D94" t="b">
         <v>1</v>
@@ -4212,7 +4212,7 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D126" t="b">
         <v>1</v>
@@ -4472,7 +4472,7 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
@@ -5638,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="F197" t="s">
         <v>6</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F198" t="s">
         <v>6</v>
@@ -5678,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
         <v>6</v>
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F200" t="s">
         <v>6</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F202" t="s">
         <v>6</v>
@@ -5798,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F205" t="s">
         <v>6</v>
@@ -5832,10 +5832,10 @@
         <v>228</v>
       </c>
       <c r="C207" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E207" t="s">
         <v>6</v>
@@ -5918,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F211" t="s">
         <v>6</v>
@@ -5932,13 +5932,13 @@
         <v>234</v>
       </c>
       <c r="C212" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D212" t="b">
         <v>1</v>
       </c>
       <c r="E212" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F212" t="s">
         <v>6</v>
@@ -5952,7 +5952,7 @@
         <v>234</v>
       </c>
       <c r="C213" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D213" t="b">
         <v>1</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="E214" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F214" t="s">
         <v>6</v>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="E215" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F215" t="s">
         <v>6</v>
@@ -6018,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F216" t="s">
         <v>6</v>
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="E217" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F217" t="s">
         <v>6</v>
@@ -6078,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="E219" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F219" t="s">
         <v>6</v>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F220" t="s">
         <v>6</v>
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F221" t="s">
         <v>6</v>
@@ -6132,7 +6132,7 @@
         <v>244</v>
       </c>
       <c r="C222" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D222" t="b">
         <v>1</v>
@@ -6172,13 +6172,13 @@
         <v>249</v>
       </c>
       <c r="C224" t="s">
+        <v>399</v>
+      </c>
+      <c r="D224" t="b">
+        <v>1</v>
+      </c>
+      <c r="E224" t="s">
         <v>400</v>
-      </c>
-      <c r="D224" t="b">
-        <v>1</v>
-      </c>
-      <c r="E224" t="s">
-        <v>401</v>
       </c>
       <c r="F224" t="s">
         <v>6</v>
@@ -6198,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F225" t="s">
         <v>6</v>
@@ -6298,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="E230" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F230" t="s">
         <v>6</v>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F232" t="s">
         <v>6</v>
